--- a/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001233428946683</v>
+        <v>1.0010211017119</v>
       </c>
       <c r="D3">
         <v>0.9956122678745017</v>
       </c>
       <c r="E3">
-        <v>1.0010211017119</v>
+        <v>0.9956122678745017</v>
       </c>
       <c r="F3">
         <v>1.001233428946683</v>
       </c>
       <c r="G3">
-        <v>1.002682495000115</v>
+        <v>1.001233428946683</v>
       </c>
       <c r="H3">
         <v>0.9976358842344779</v>
       </c>
       <c r="I3">
+        <v>1.002682495000114</v>
+      </c>
+      <c r="J3">
         <v>1.001083005391878</v>
-      </c>
-      <c r="J3">
-        <v>0.9956122678745017</v>
       </c>
       <c r="K3">
         <v>1.001233428946683</v>
@@ -728,7 +680,7 @@
         <v>0.9998780305265923</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002373509840055</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="D4">
         <v>0.991534220025623</v>
       </c>
       <c r="E4">
-        <v>1.001973631875799</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="F4">
         <v>1.002373509840055</v>
       </c>
       <c r="G4">
-        <v>1.005186849739861</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="H4">
         <v>0.9954363615445415</v>
       </c>
       <c r="I4">
+        <v>1.005186849739861</v>
+      </c>
+      <c r="J4">
         <v>1.002090214711779</v>
-      </c>
-      <c r="J4">
-        <v>0.991534220025623</v>
       </c>
       <c r="K4">
         <v>1.002373509840055</v>
@@ -790,7 +742,7 @@
         <v>0.9997657979562765</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00453604504173</v>
+        <v>1.003786174389874</v>
       </c>
       <c r="D5">
         <v>0.9837840647070265</v>
       </c>
       <c r="E5">
-        <v>1.003786174389874</v>
+        <v>0.9837840647070265</v>
       </c>
       <c r="F5">
         <v>1.00453604504173</v>
       </c>
       <c r="G5">
-        <v>1.009953628544868</v>
+        <v>1.00453604504173</v>
       </c>
       <c r="H5">
         <v>0.9912547716249811</v>
       </c>
       <c r="I5">
+        <v>1.009953628544868</v>
+      </c>
+      <c r="J5">
         <v>1.004004792892524</v>
-      </c>
-      <c r="J5">
-        <v>0.9837840647070265</v>
       </c>
       <c r="K5">
         <v>1.00453604504173</v>
@@ -852,7 +804,7 @@
         <v>0.9995532462001672</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006643574690273</v>
+        <v>1.005556065579625</v>
       </c>
       <c r="D6">
-        <v>0.9762221508534852</v>
+        <v>0.9762221508534854</v>
       </c>
       <c r="E6">
-        <v>1.005556065579625</v>
+        <v>0.9762221508534854</v>
       </c>
       <c r="F6">
         <v>1.006643574690273</v>
       </c>
       <c r="G6">
-        <v>1.014609031004232</v>
+        <v>1.006643574690273</v>
       </c>
       <c r="H6">
         <v>0.9871738633053729</v>
       </c>
       <c r="I6">
+        <v>1.014609031004232</v>
+      </c>
+      <c r="J6">
         <v>1.00587312627509</v>
-      </c>
-      <c r="J6">
-        <v>0.9762221508534852</v>
       </c>
       <c r="K6">
         <v>1.006643574690273</v>
@@ -890,31 +842,31 @@
         <v>1.005556065579625</v>
       </c>
       <c r="M6">
-        <v>0.9908891082165553</v>
+        <v>0.9908891082165554</v>
       </c>
       <c r="N6">
-        <v>0.9908891082165553</v>
+        <v>0.9908891082165554</v>
       </c>
       <c r="O6">
         <v>0.9896506932461612</v>
       </c>
       <c r="P6">
-        <v>0.996140597041128</v>
+        <v>0.9961405970411281</v>
       </c>
       <c r="Q6">
-        <v>0.996140597041128</v>
+        <v>0.9961405970411281</v>
       </c>
       <c r="R6">
-        <v>0.9987663414534143</v>
+        <v>0.9987663414534145</v>
       </c>
       <c r="S6">
-        <v>0.9987663414534143</v>
+        <v>0.9987663414534145</v>
       </c>
       <c r="T6">
         <v>0.9993463019513465</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000058679560107</v>
+        <v>1.00007685456448</v>
       </c>
       <c r="D7">
-        <v>0.9997185446232343</v>
+        <v>0.9997185446232341</v>
       </c>
       <c r="E7">
-        <v>1.00007685456448</v>
+        <v>0.9997185446232341</v>
       </c>
       <c r="F7">
         <v>1.000058679560107</v>
       </c>
       <c r="G7">
-        <v>1.000208408513015</v>
+        <v>1.000058679560107</v>
       </c>
       <c r="H7">
         <v>0.9998409913550216</v>
       </c>
       <c r="I7">
+        <v>1.000208408513015</v>
+      </c>
+      <c r="J7">
         <v>1.000071556521662</v>
-      </c>
-      <c r="J7">
-        <v>0.9997185446232343</v>
       </c>
       <c r="K7">
         <v>1.000058679560107</v>
@@ -964,19 +916,19 @@
         <v>0.9999513595826072</v>
       </c>
       <c r="Q7">
-        <v>0.9999513595826072</v>
+        <v>0.9999513595826071</v>
       </c>
       <c r="R7">
-        <v>0.9999781895769821</v>
+        <v>0.9999781895769819</v>
       </c>
       <c r="S7">
-        <v>0.9999781895769821</v>
+        <v>0.9999781895769819</v>
       </c>
       <c r="T7">
         <v>0.9999958391895866</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000144257750378</v>
+        <v>1.000189112210875</v>
       </c>
       <c r="D8">
-        <v>0.9993076289390362</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="E8">
-        <v>1.000189112210875</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="F8">
         <v>1.000144257750378</v>
       </c>
       <c r="G8">
-        <v>1.000512842322725</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="H8">
         <v>0.999608813426451</v>
       </c>
       <c r="I8">
+        <v>1.000512842322725</v>
+      </c>
+      <c r="J8">
         <v>1.000176035488181</v>
-      </c>
-      <c r="J8">
-        <v>0.9993076289390362</v>
       </c>
       <c r="K8">
         <v>1.000144257750378</v>
@@ -1014,13 +966,13 @@
         <v>1.000189112210875</v>
       </c>
       <c r="M8">
-        <v>0.9997483705749555</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="N8">
-        <v>0.9997483705749555</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="O8">
-        <v>0.999701851525454</v>
+        <v>0.9997018515254538</v>
       </c>
       <c r="P8">
         <v>0.999880332966763</v>
@@ -1038,7 +990,7 @@
         <v>0.9999897816896076</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000193869221197</v>
+        <v>1.000253115284029</v>
       </c>
       <c r="D9">
         <v>0.9990721756550945</v>
       </c>
       <c r="E9">
-        <v>1.000253115284029</v>
+        <v>0.9990721756550945</v>
       </c>
       <c r="F9">
         <v>1.000193869221197</v>
       </c>
       <c r="G9">
-        <v>1.000686259985648</v>
+        <v>1.000193869221197</v>
       </c>
       <c r="H9">
         <v>0.9994759836760613</v>
       </c>
       <c r="I9">
+        <v>1.000686259985648</v>
+      </c>
+      <c r="J9">
         <v>1.000235842973962</v>
-      </c>
-      <c r="J9">
-        <v>0.9990721756550945</v>
       </c>
       <c r="K9">
         <v>1.000193869221197</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999862077993319</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0004267185942</v>
+        <v>1.000555985571785</v>
       </c>
       <c r="D10">
         <v>0.9979607231208689</v>
       </c>
       <c r="E10">
-        <v>1.000555985571785</v>
+        <v>0.9979607231208689</v>
       </c>
       <c r="F10">
         <v>1.0004267185942</v>
       </c>
       <c r="G10">
+        <v>1.0004267185942</v>
+      </c>
+      <c r="H10">
+        <v>0.9988484803497836</v>
+      </c>
+      <c r="I10">
         <v>1.001507250637443</v>
       </c>
-      <c r="H10">
-        <v>0.9988484803497838</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.000518298890332</v>
-      </c>
-      <c r="J10">
-        <v>0.9979607231208689</v>
       </c>
       <c r="K10">
         <v>1.0004267185942</v>
@@ -1138,13 +1090,13 @@
         <v>1.000555985571785</v>
       </c>
       <c r="M10">
-        <v>0.999258354346327</v>
+        <v>0.9992583543463269</v>
       </c>
       <c r="N10">
-        <v>0.999258354346327</v>
+        <v>0.9992583543463269</v>
       </c>
       <c r="O10">
-        <v>0.9991217296808127</v>
+        <v>0.9991217296808125</v>
       </c>
       <c r="P10">
         <v>0.9996478090956179</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999695761940686</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000690721479922</v>
+        <v>1.000894761317132</v>
       </c>
       <c r="D11">
-        <v>0.9967124422259779</v>
+        <v>0.9967124422259777</v>
       </c>
       <c r="E11">
-        <v>1.000894761317132</v>
+        <v>0.9967124422259777</v>
       </c>
       <c r="F11">
         <v>1.000690721479922</v>
       </c>
       <c r="G11">
-        <v>1.00242489509959</v>
+        <v>1.000690721479922</v>
       </c>
       <c r="H11">
         <v>0.9981446211295919</v>
       </c>
       <c r="I11">
+        <v>1.00242489509959</v>
+      </c>
+      <c r="J11">
         <v>1.00083527652074</v>
-      </c>
-      <c r="J11">
-        <v>0.9967124422259779</v>
       </c>
       <c r="K11">
         <v>1.000690721479922</v>
@@ -1200,31 +1152,31 @@
         <v>1.000894761317132</v>
       </c>
       <c r="M11">
-        <v>0.9988036017715549</v>
+        <v>0.9988036017715548</v>
       </c>
       <c r="N11">
-        <v>0.9988036017715549</v>
+        <v>0.9988036017715548</v>
       </c>
       <c r="O11">
-        <v>0.9985839415575674</v>
+        <v>0.9985839415575671</v>
       </c>
       <c r="P11">
-        <v>0.9994326416743441</v>
+        <v>0.999432641674344</v>
       </c>
       <c r="Q11">
-        <v>0.9994326416743441</v>
+        <v>0.999432641674344</v>
       </c>
       <c r="R11">
-        <v>0.9997471616257387</v>
+        <v>0.9997471616257385</v>
       </c>
       <c r="S11">
-        <v>0.9997471616257387</v>
+        <v>0.9997471616257385</v>
       </c>
       <c r="T11">
-        <v>0.9999504529621591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999950452962159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9961681657979153</v>
+        <v>0.9911915687538168</v>
       </c>
       <c r="D12">
         <v>1.02812430450951</v>
       </c>
       <c r="E12">
-        <v>0.9911915687538168</v>
+        <v>1.02812430450951</v>
       </c>
       <c r="F12">
         <v>0.9961681657979153</v>
       </c>
       <c r="G12">
-        <v>0.9755629199462998</v>
+        <v>0.9961681657979153</v>
       </c>
       <c r="H12">
         <v>1.016620090270093</v>
       </c>
       <c r="I12">
+        <v>0.9755629199462998</v>
+      </c>
+      <c r="J12">
         <v>0.9926424716027454</v>
-      </c>
-      <c r="J12">
-        <v>1.02812430450951</v>
       </c>
       <c r="K12">
         <v>0.9961681657979153</v>
@@ -1286,7 +1238,7 @@
         <v>1.000051586813397</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9964288541187124</v>
+        <v>0.9985453766055026</v>
       </c>
       <c r="D13">
         <v>1.008842105048209</v>
       </c>
       <c r="E13">
-        <v>0.9985453766055025</v>
+        <v>1.008842105048209</v>
       </c>
       <c r="F13">
         <v>0.9964288541187124</v>
       </c>
       <c r="G13">
-        <v>0.9965241456152116</v>
+        <v>0.9964288541187124</v>
       </c>
       <c r="H13">
         <v>1.00437333318519</v>
       </c>
       <c r="I13">
-        <v>0.9979283127626315</v>
+        <v>0.9965241456152116</v>
       </c>
       <c r="J13">
-        <v>1.008842105048209</v>
+        <v>0.9979283127626314</v>
       </c>
       <c r="K13">
         <v>0.9964288541187124</v>
       </c>
       <c r="L13">
-        <v>0.9985453766055025</v>
+        <v>0.9985453766055026</v>
       </c>
       <c r="M13">
         <v>1.003693740826856</v>
@@ -1348,7 +1300,7 @@
         <v>1.00044035455591</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9793137288942677</v>
+        <v>0.9770848392505382</v>
       </c>
       <c r="D14">
         <v>1.088476536302538</v>
       </c>
       <c r="E14">
-        <v>0.9770848392505381</v>
+        <v>1.088476536302538</v>
       </c>
       <c r="F14">
         <v>0.9793137288942677</v>
       </c>
       <c r="G14">
-        <v>0.9384683448065861</v>
+        <v>0.9793137288942677</v>
       </c>
       <c r="H14">
         <v>1.049177922113154</v>
       </c>
       <c r="I14">
+        <v>0.9384683448065863</v>
+      </c>
+      <c r="J14">
         <v>0.977734662465287</v>
-      </c>
-      <c r="J14">
-        <v>1.088476536302538</v>
       </c>
       <c r="K14">
         <v>0.9793137288942677</v>
       </c>
       <c r="L14">
-        <v>0.9770848392505381</v>
+        <v>0.9770848392505382</v>
       </c>
       <c r="M14">
         <v>1.032780687776538</v>
@@ -1410,7 +1362,7 @@
         <v>1.001709338972062</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9933608914832228</v>
+        <v>0.9943369408610638</v>
       </c>
       <c r="D15">
         <v>1.024046583820464</v>
       </c>
       <c r="E15">
-        <v>0.9943369408610638</v>
+        <v>1.024046583820464</v>
       </c>
       <c r="F15">
         <v>0.9933608914832228</v>
       </c>
       <c r="G15">
-        <v>0.9850844335556901</v>
+        <v>0.9933608914832228</v>
       </c>
       <c r="H15">
         <v>1.012999733092003</v>
       </c>
       <c r="I15">
+        <v>0.9850844335556901</v>
+      </c>
+      <c r="J15">
         <v>0.9940523900413201</v>
-      </c>
-      <c r="J15">
-        <v>1.024046583820464</v>
       </c>
       <c r="K15">
         <v>0.9933608914832228</v>
@@ -1472,7 +1424,7 @@
         <v>1.00064682880896</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000024422960866</v>
+        <v>1.020025909954428</v>
       </c>
       <c r="D16">
-        <v>0.9999699858777615</v>
+        <v>0.914643652854599</v>
       </c>
       <c r="E16">
-        <v>0.9999981033281633</v>
+        <v>0.914643652854599</v>
       </c>
       <c r="F16">
-        <v>1.000024422960866</v>
+        <v>1.023702793640468</v>
       </c>
       <c r="G16">
-        <v>0.9999899299238119</v>
+        <v>1.023702793640468</v>
       </c>
       <c r="H16">
-        <v>0.9999895813975754</v>
+        <v>0.9539049443635378</v>
       </c>
       <c r="I16">
-        <v>1.000005777465299</v>
+        <v>1.052702081315154</v>
       </c>
       <c r="J16">
-        <v>0.9999699858777615</v>
+        <v>1.021097895611319</v>
       </c>
       <c r="K16">
-        <v>1.000024422960866</v>
+        <v>1.023702793640468</v>
       </c>
       <c r="L16">
-        <v>0.9999981033281633</v>
+        <v>1.020025909954428</v>
       </c>
       <c r="M16">
-        <v>0.9999840446029624</v>
+        <v>0.9673347814045137</v>
       </c>
       <c r="N16">
-        <v>0.9999840446029624</v>
+        <v>0.9673347814045137</v>
       </c>
       <c r="O16">
-        <v>0.9999858902011667</v>
+        <v>0.9628581690575216</v>
       </c>
       <c r="P16">
-        <v>0.9999975040555968</v>
+        <v>0.9861241188164985</v>
       </c>
       <c r="Q16">
-        <v>0.9999975040555968</v>
+        <v>0.9861241188164985</v>
       </c>
       <c r="R16">
-        <v>1.000004233781914</v>
+        <v>0.9955187875224909</v>
       </c>
       <c r="S16">
-        <v>1.000004233781914</v>
+        <v>0.9955187875224909</v>
       </c>
       <c r="T16">
-        <v>0.9999963001589128</v>
+        <v>0.9976795462899175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000038025594663</v>
+        <v>1.016651934564236</v>
       </c>
       <c r="D17">
-        <v>0.9996592626853948</v>
+        <v>0.9307140474588046</v>
       </c>
       <c r="E17">
-        <v>1.000111383537085</v>
+        <v>0.9307140474588046</v>
       </c>
       <c r="F17">
-        <v>1.000038025594663</v>
+        <v>1.018526676657326</v>
       </c>
       <c r="G17">
-        <v>1.000310994615597</v>
+        <v>1.018526676657326</v>
       </c>
       <c r="H17">
-        <v>0.9997956157987045</v>
+        <v>0.962326594017575</v>
       </c>
       <c r="I17">
-        <v>1.000089996663414</v>
+        <v>1.044048074372706</v>
       </c>
       <c r="J17">
-        <v>0.9996592626853948</v>
+        <v>1.017198512372287</v>
       </c>
       <c r="K17">
-        <v>1.000038025594663</v>
+        <v>1.018526676657326</v>
       </c>
       <c r="L17">
-        <v>1.000111383537085</v>
+        <v>1.016651934564236</v>
       </c>
       <c r="M17">
-        <v>0.9998853231112401</v>
+        <v>0.9736829910115203</v>
       </c>
       <c r="N17">
-        <v>0.9998853231112401</v>
+        <v>0.9736829910115203</v>
       </c>
       <c r="O17">
-        <v>0.9998554206737283</v>
+        <v>0.9698975253468719</v>
       </c>
       <c r="P17">
-        <v>0.9999362239390477</v>
+        <v>0.9886308862267891</v>
       </c>
       <c r="Q17">
-        <v>0.9999362239390477</v>
+        <v>0.9886308862267891</v>
       </c>
       <c r="R17">
-        <v>0.9999616743529514</v>
+        <v>0.9961048338344234</v>
       </c>
       <c r="S17">
-        <v>0.9999616743529514</v>
+        <v>0.9961048338344234</v>
       </c>
       <c r="T17">
-        <v>1.00000087981581</v>
+        <v>0.9982443065738226</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000465965022148</v>
+        <v>1.009840278895299</v>
       </c>
       <c r="D18">
-        <v>0.998596007609981</v>
+        <v>0.9630621659235005</v>
       </c>
       <c r="E18">
-        <v>1.00028712889534</v>
+        <v>0.9630621659235005</v>
       </c>
       <c r="F18">
-        <v>1.000465965022148</v>
+        <v>1.00814398473707</v>
       </c>
       <c r="G18">
-        <v>1.00073160892113</v>
+        <v>1.00814398473707</v>
       </c>
       <c r="H18">
-        <v>0.9992691903481919</v>
+        <v>0.9792916194161195</v>
       </c>
       <c r="I18">
-        <v>1.000339268467195</v>
+        <v>1.026563842158782</v>
       </c>
       <c r="J18">
-        <v>0.998596007609981</v>
+        <v>1.009345732226067</v>
       </c>
       <c r="K18">
-        <v>1.000465965022148</v>
+        <v>1.00814398473707</v>
       </c>
       <c r="L18">
-        <v>1.00028712889534</v>
+        <v>1.009840278895299</v>
       </c>
       <c r="M18">
-        <v>0.9994415682526603</v>
+        <v>0.9864512224093998</v>
       </c>
       <c r="N18">
-        <v>0.9994415682526603</v>
+        <v>0.9864512224093998</v>
       </c>
       <c r="O18">
-        <v>0.9993841089511708</v>
+        <v>0.9840646880783064</v>
       </c>
       <c r="P18">
-        <v>0.9997830338424895</v>
+        <v>0.99368214318529</v>
       </c>
       <c r="Q18">
-        <v>0.9997830338424896</v>
+        <v>0.9936821431852899</v>
       </c>
       <c r="R18">
-        <v>0.9999537666374041</v>
+        <v>0.997297603573235</v>
       </c>
       <c r="S18">
-        <v>0.9999537666374041</v>
+        <v>0.997297603573235</v>
       </c>
       <c r="T18">
-        <v>0.999948194877331</v>
+        <v>0.9993746038928063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010920290494245</v>
+      </c>
+      <c r="D19">
+        <v>0.9597766204022152</v>
+      </c>
+      <c r="E19">
+        <v>0.9597766204022152</v>
+      </c>
+      <c r="F19">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="G19">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="H19">
+        <v>0.9773169775752665</v>
+      </c>
+      <c r="I19">
+        <v>1.029581804506521</v>
+      </c>
+      <c r="J19">
+        <v>1.010214623597769</v>
+      </c>
+      <c r="K19">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="L19">
+        <v>1.010920290494245</v>
+      </c>
+      <c r="M19">
+        <v>0.9853484554482301</v>
+      </c>
+      <c r="N19">
+        <v>0.9853484554482301</v>
+      </c>
+      <c r="O19">
+        <v>0.9826712961572422</v>
+      </c>
+      <c r="P19">
+        <v>0.9930655856485592</v>
+      </c>
+      <c r="Q19">
+        <v>0.9930655856485592</v>
+      </c>
+      <c r="R19">
+        <v>0.9969241507487238</v>
+      </c>
+      <c r="S19">
+        <v>0.9969241507487238</v>
+      </c>
+      <c r="T19">
+        <v>0.9993850271042057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999981033281633</v>
+      </c>
+      <c r="D20">
+        <v>0.9999699858777615</v>
+      </c>
+      <c r="E20">
+        <v>0.9999699858777615</v>
+      </c>
+      <c r="F20">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="G20">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="H20">
+        <v>0.9999895813975754</v>
+      </c>
+      <c r="I20">
+        <v>0.9999899299238119</v>
+      </c>
+      <c r="J20">
+        <v>1.000005777465299</v>
+      </c>
+      <c r="K20">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="L20">
+        <v>0.9999981033281633</v>
+      </c>
+      <c r="M20">
+        <v>0.9999840446029624</v>
+      </c>
+      <c r="N20">
+        <v>0.9999840446029624</v>
+      </c>
+      <c r="O20">
+        <v>0.9999858902011667</v>
+      </c>
+      <c r="P20">
+        <v>0.9999975040555968</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999975040555968</v>
+      </c>
+      <c r="R20">
+        <v>1.000004233781914</v>
+      </c>
+      <c r="S20">
+        <v>1.000004233781914</v>
+      </c>
+      <c r="T20">
+        <v>0.9999963001589128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000111383537085</v>
+      </c>
+      <c r="D21">
+        <v>0.9996592626853948</v>
+      </c>
+      <c r="E21">
+        <v>0.9996592626853948</v>
+      </c>
+      <c r="F21">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="G21">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="H21">
+        <v>0.9997956157987048</v>
+      </c>
+      <c r="I21">
+        <v>1.000310994615597</v>
+      </c>
+      <c r="J21">
+        <v>1.000089996663414</v>
+      </c>
+      <c r="K21">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="L21">
+        <v>1.000111383537085</v>
+      </c>
+      <c r="M21">
+        <v>0.9998853231112401</v>
+      </c>
+      <c r="N21">
+        <v>0.9998853231112401</v>
+      </c>
+      <c r="O21">
+        <v>0.9998554206737283</v>
+      </c>
+      <c r="P21">
+        <v>0.9999362239390476</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999362239390476</v>
+      </c>
+      <c r="R21">
+        <v>0.9999616743529512</v>
+      </c>
+      <c r="S21">
+        <v>0.9999616743529512</v>
+      </c>
+      <c r="T21">
+        <v>1.00000087981581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.00028712889534</v>
+      </c>
+      <c r="D22">
+        <v>0.998596007609981</v>
+      </c>
+      <c r="E22">
+        <v>0.998596007609981</v>
+      </c>
+      <c r="F22">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="G22">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="H22">
+        <v>0.9992691903481919</v>
+      </c>
+      <c r="I22">
+        <v>1.00073160892113</v>
+      </c>
+      <c r="J22">
+        <v>1.000339268467195</v>
+      </c>
+      <c r="K22">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="L22">
+        <v>1.00028712889534</v>
+      </c>
+      <c r="M22">
+        <v>0.9994415682526603</v>
+      </c>
+      <c r="N22">
+        <v>0.9994415682526603</v>
+      </c>
+      <c r="O22">
+        <v>0.9993841089511708</v>
+      </c>
+      <c r="P22">
+        <v>0.9997830338424895</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997830338424896</v>
+      </c>
+      <c r="R22">
+        <v>0.9999537666374041</v>
+      </c>
+      <c r="S22">
+        <v>0.9999537666374041</v>
+      </c>
+      <c r="T22">
+        <v>0.999948194877331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.00060349543936</v>
+      </c>
+      <c r="D23">
+        <v>0.9965762904395246</v>
+      </c>
+      <c r="E23">
+        <v>0.9965762904395246</v>
+      </c>
+      <c r="F23">
         <v>1.001310310831088</v>
       </c>
-      <c r="D19">
-        <v>0.9965762904395246</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.001310310831088</v>
+      </c>
+      <c r="H23">
+        <v>0.9982805275650131</v>
+      </c>
+      <c r="I23">
+        <v>1.00147468358275</v>
+      </c>
+      <c r="J23">
+        <v>1.000809563313386</v>
+      </c>
+      <c r="K23">
+        <v>1.001310310831088</v>
+      </c>
+      <c r="L23">
         <v>1.00060349543936</v>
       </c>
-      <c r="F19">
-        <v>1.001310310831088</v>
-      </c>
-      <c r="G19">
-        <v>1.00147468358275</v>
-      </c>
-      <c r="H19">
-        <v>0.9982805275650131</v>
-      </c>
-      <c r="I19">
-        <v>1.000809563313386</v>
-      </c>
-      <c r="J19">
-        <v>0.9965762904395246</v>
-      </c>
-      <c r="K19">
-        <v>1.001310310831088</v>
-      </c>
-      <c r="L19">
-        <v>1.00060349543936</v>
-      </c>
-      <c r="M19">
-        <v>0.9985898929394424</v>
-      </c>
-      <c r="N19">
-        <v>0.9985898929394424</v>
-      </c>
-      <c r="O19">
-        <v>0.998486771147966</v>
-      </c>
-      <c r="P19">
+      <c r="M23">
+        <v>0.9985898929394422</v>
+      </c>
+      <c r="N23">
+        <v>0.9985898929394422</v>
+      </c>
+      <c r="O23">
+        <v>0.9984867711479658</v>
+      </c>
+      <c r="P23">
         <v>0.9994966989033243</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9994966989033243</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999501018852652</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999501018852652</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9998424785285204</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0010211017119</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="D3">
-        <v>0.9956122678745017</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="E3">
-        <v>0.9956122678745017</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="F3">
-        <v>1.001233428946683</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="G3">
-        <v>1.001233428946683</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="H3">
-        <v>0.9976358842344779</v>
+        <v>0.9753798391354477</v>
       </c>
       <c r="I3">
-        <v>1.002682495000114</v>
+        <v>1.031567446145534</v>
       </c>
       <c r="J3">
-        <v>1.001083005391878</v>
+        <v>1.011111781844382</v>
       </c>
       <c r="K3">
-        <v>1.001233428946683</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="L3">
-        <v>1.0010211017119</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="M3">
-        <v>0.9983166847932006</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="N3">
-        <v>0.9983166847932006</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="O3">
-        <v>0.9980897512736263</v>
+        <v>0.9810508229803068</v>
       </c>
       <c r="P3">
-        <v>0.9992889328443613</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="Q3">
-        <v>0.9992889328443613</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="R3">
-        <v>0.9997750568699416</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="S3">
-        <v>0.9997750568699416</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="T3">
-        <v>0.9998780305265923</v>
+        <v>0.9992544068587899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001973631875799</v>
+        <v>1.010711032418929</v>
       </c>
       <c r="D4">
-        <v>0.991534220025623</v>
+        <v>0.9598060303838927</v>
       </c>
       <c r="E4">
-        <v>0.991534220025623</v>
+        <v>0.9598060303838927</v>
       </c>
       <c r="F4">
-        <v>1.002373509840055</v>
+        <v>1.008855919640328</v>
       </c>
       <c r="G4">
-        <v>1.002373509840055</v>
+        <v>1.008855919640328</v>
       </c>
       <c r="H4">
-        <v>0.9954363615445415</v>
+        <v>0.9774639888883719</v>
       </c>
       <c r="I4">
-        <v>1.005186849739861</v>
+        <v>1.028916108778416</v>
       </c>
       <c r="J4">
-        <v>1.002090214711779</v>
+        <v>1.010170184935708</v>
       </c>
       <c r="K4">
-        <v>1.002373509840055</v>
+        <v>1.008855919640328</v>
       </c>
       <c r="L4">
-        <v>1.001973631875799</v>
+        <v>1.010711032418929</v>
       </c>
       <c r="M4">
-        <v>0.9967539259507108</v>
+        <v>0.9852585314014108</v>
       </c>
       <c r="N4">
-        <v>0.9967539259507108</v>
+        <v>0.9852585314014108</v>
       </c>
       <c r="O4">
-        <v>0.9963147378153211</v>
+        <v>0.9826603505637311</v>
       </c>
       <c r="P4">
-        <v>0.9986271205804922</v>
+        <v>0.9931243274810497</v>
       </c>
       <c r="Q4">
-        <v>0.9986271205804922</v>
+        <v>0.9931243274810497</v>
       </c>
       <c r="R4">
-        <v>0.9995637178953829</v>
+        <v>0.9970572255208692</v>
       </c>
       <c r="S4">
-        <v>0.9995637178953829</v>
+        <v>0.9970572255208692</v>
       </c>
       <c r="T4">
-        <v>0.9997657979562765</v>
+        <v>0.9993205441742742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003786174389874</v>
+        <v>1.013556363773584</v>
       </c>
       <c r="D5">
-        <v>0.9837840647070265</v>
+        <v>0.9490403697843668</v>
       </c>
       <c r="E5">
-        <v>0.9837840647070265</v>
+        <v>0.9490403697843668</v>
       </c>
       <c r="F5">
-        <v>1.00453604504173</v>
+        <v>1.011270293530998</v>
       </c>
       <c r="G5">
-        <v>1.00453604504173</v>
+        <v>1.011270293530998</v>
       </c>
       <c r="H5">
-        <v>0.9912547716249811</v>
+        <v>0.9714431388948764</v>
       </c>
       <c r="I5">
-        <v>1.009953628544868</v>
+        <v>1.036585740862533</v>
       </c>
       <c r="J5">
-        <v>1.004004792892524</v>
+        <v>1.012889872048519</v>
       </c>
       <c r="K5">
-        <v>1.00453604504173</v>
+        <v>1.011270293530998</v>
       </c>
       <c r="L5">
-        <v>1.003786174389874</v>
+        <v>1.013556363773584</v>
       </c>
       <c r="M5">
-        <v>0.9937851195484502</v>
+        <v>0.9812983667789754</v>
       </c>
       <c r="N5">
-        <v>0.9937851195484502</v>
+        <v>0.9812983667789754</v>
       </c>
       <c r="O5">
-        <v>0.9929416702406272</v>
+        <v>0.978013290817609</v>
       </c>
       <c r="P5">
-        <v>0.9973687613795436</v>
+        <v>0.9912890090296497</v>
       </c>
       <c r="Q5">
-        <v>0.9973687613795436</v>
+        <v>0.9912890090296497</v>
       </c>
       <c r="R5">
-        <v>0.9991605822950902</v>
+        <v>0.9962843301549869</v>
       </c>
       <c r="S5">
-        <v>0.9991605822950902</v>
+        <v>0.9962843301549869</v>
       </c>
       <c r="T5">
-        <v>0.9995532462001672</v>
+        <v>0.9991309631491463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.005556065579625</v>
+        <v>1.015285970738637</v>
       </c>
       <c r="D6">
-        <v>0.9762221508534854</v>
+        <v>0.9425209443181809</v>
       </c>
       <c r="E6">
-        <v>0.9762221508534854</v>
+        <v>0.9425209443181809</v>
       </c>
       <c r="F6">
-        <v>1.006643574690273</v>
+        <v>1.012720596704546</v>
       </c>
       <c r="G6">
-        <v>1.006643574690273</v>
+        <v>1.012720596704546</v>
       </c>
       <c r="H6">
-        <v>0.9871738633053729</v>
+        <v>0.9677928177272733</v>
       </c>
       <c r="I6">
-        <v>1.014609031004232</v>
+        <v>1.041251230852272</v>
       </c>
       <c r="J6">
-        <v>1.00587312627509</v>
+        <v>1.014538052102273</v>
       </c>
       <c r="K6">
-        <v>1.006643574690273</v>
+        <v>1.012720596704546</v>
       </c>
       <c r="L6">
-        <v>1.005556065579625</v>
+        <v>1.015285970738637</v>
       </c>
       <c r="M6">
-        <v>0.9908891082165554</v>
+        <v>0.9789034575284092</v>
       </c>
       <c r="N6">
-        <v>0.9908891082165554</v>
+        <v>0.9789034575284092</v>
       </c>
       <c r="O6">
-        <v>0.9896506932461612</v>
+        <v>0.9751999109280306</v>
       </c>
       <c r="P6">
-        <v>0.9961405970411281</v>
+        <v>0.9901758372537882</v>
       </c>
       <c r="Q6">
-        <v>0.9961405970411281</v>
+        <v>0.990175837253788</v>
       </c>
       <c r="R6">
-        <v>0.9987663414534145</v>
+        <v>0.9958120271164774</v>
       </c>
       <c r="S6">
-        <v>0.9987663414534145</v>
+        <v>0.9958120271164774</v>
       </c>
       <c r="T6">
-        <v>0.9993463019513465</v>
+        <v>0.9990182687405306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00007685456448</v>
+        <v>1.007827231071991</v>
       </c>
       <c r="D7">
-        <v>0.9997185446232341</v>
+        <v>0.9758307308546544</v>
       </c>
       <c r="E7">
-        <v>0.9997185446232341</v>
+        <v>0.9758307308546544</v>
       </c>
       <c r="F7">
-        <v>1.000058679560107</v>
+        <v>1.002829491072633</v>
       </c>
       <c r="G7">
-        <v>1.000058679560107</v>
+        <v>1.002829491072633</v>
       </c>
       <c r="H7">
-        <v>0.9998409913550216</v>
+        <v>0.9855502700921602</v>
       </c>
       <c r="I7">
-        <v>1.000208408513015</v>
+        <v>1.021824554471974</v>
       </c>
       <c r="J7">
-        <v>1.000071556521662</v>
+        <v>1.006370156586383</v>
       </c>
       <c r="K7">
-        <v>1.000058679560107</v>
+        <v>1.002829491072633</v>
       </c>
       <c r="L7">
-        <v>1.00007685456448</v>
+        <v>1.007827231071991</v>
       </c>
       <c r="M7">
-        <v>0.9998976995938573</v>
+        <v>0.9918289809633229</v>
       </c>
       <c r="N7">
-        <v>0.9998976995938573</v>
+        <v>0.9918289809633229</v>
       </c>
       <c r="O7">
-        <v>0.9998787968475787</v>
+        <v>0.989736077339602</v>
       </c>
       <c r="P7">
-        <v>0.9999513595826072</v>
+        <v>0.9954958176664263</v>
       </c>
       <c r="Q7">
-        <v>0.9999513595826071</v>
+        <v>0.9954958176664261</v>
       </c>
       <c r="R7">
-        <v>0.9999781895769819</v>
+        <v>0.9973292360179778</v>
       </c>
       <c r="S7">
-        <v>0.9999781895769819</v>
+        <v>0.9973292360179778</v>
       </c>
       <c r="T7">
-        <v>0.9999958391895866</v>
+        <v>1.000038739024966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000189112210875</v>
+        <v>1.008028973744419</v>
       </c>
       <c r="D8">
-        <v>0.999307628939036</v>
+        <v>0.9750875645369539</v>
       </c>
       <c r="E8">
-        <v>0.999307628939036</v>
+        <v>0.9750875645369539</v>
       </c>
       <c r="F8">
-        <v>1.000144257750378</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="G8">
-        <v>1.000144257750378</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="H8">
-        <v>0.999608813426451</v>
+        <v>0.9851311923818167</v>
       </c>
       <c r="I8">
-        <v>1.000512842322725</v>
+        <v>1.022371042200191</v>
       </c>
       <c r="J8">
-        <v>1.000176035488181</v>
+        <v>1.006558877944901</v>
       </c>
       <c r="K8">
-        <v>1.000144257750378</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="L8">
-        <v>1.000189112210875</v>
+        <v>1.008028973744419</v>
       </c>
       <c r="M8">
-        <v>0.9997483705749552</v>
+        <v>0.9915582691406866</v>
       </c>
       <c r="N8">
-        <v>0.9997483705749552</v>
+        <v>0.9915582691406866</v>
       </c>
       <c r="O8">
-        <v>0.9997018515254538</v>
+        <v>0.9894159102210632</v>
       </c>
       <c r="P8">
-        <v>0.999880332966763</v>
+        <v>0.9953677030319743</v>
       </c>
       <c r="Q8">
-        <v>0.999880332966763</v>
+        <v>0.9953677030319743</v>
       </c>
       <c r="R8">
-        <v>0.9999463141626668</v>
+        <v>0.9972724199776182</v>
       </c>
       <c r="S8">
-        <v>0.9999463141626668</v>
+        <v>0.9972724199776182</v>
       </c>
       <c r="T8">
-        <v>0.9999897816896076</v>
+        <v>1.000027370270472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000253115284029</v>
+        <v>1.00822879844316</v>
       </c>
       <c r="D9">
-        <v>0.9990721756550945</v>
+        <v>0.9743707469625479</v>
       </c>
       <c r="E9">
-        <v>0.9990721756550945</v>
+        <v>0.9743707469625479</v>
       </c>
       <c r="F9">
-        <v>1.000193869221197</v>
+        <v>1.003128658670451</v>
       </c>
       <c r="G9">
-        <v>1.000193869221197</v>
+        <v>1.003128658670451</v>
       </c>
       <c r="H9">
-        <v>0.9994759836760613</v>
+        <v>0.9847235807644441</v>
       </c>
       <c r="I9">
-        <v>1.000686259985648</v>
+        <v>1.022914905657866</v>
       </c>
       <c r="J9">
-        <v>1.000235842973962</v>
+        <v>1.006741869814944</v>
       </c>
       <c r="K9">
-        <v>1.000193869221197</v>
+        <v>1.003128658670451</v>
       </c>
       <c r="L9">
-        <v>1.000253115284029</v>
+        <v>1.00822879844316</v>
       </c>
       <c r="M9">
-        <v>0.9996626454695616</v>
+        <v>0.9912997727028541</v>
       </c>
       <c r="N9">
-        <v>0.9996626454695616</v>
+        <v>0.9912997727028541</v>
       </c>
       <c r="O9">
-        <v>0.9996004248717282</v>
+        <v>0.989107708723384</v>
       </c>
       <c r="P9">
-        <v>0.9998397200534401</v>
+        <v>0.995242734692053</v>
       </c>
       <c r="Q9">
-        <v>0.9998397200534401</v>
+        <v>0.9952427346920528</v>
       </c>
       <c r="R9">
-        <v>0.9999282573453794</v>
+        <v>0.9972142156866524</v>
       </c>
       <c r="S9">
-        <v>0.9999282573453794</v>
+        <v>0.9972142156866524</v>
       </c>
       <c r="T9">
-        <v>0.9999862077993319</v>
+        <v>1.000018093385569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000555985571785</v>
+        <v>1.008476653529853</v>
       </c>
       <c r="D10">
-        <v>0.9979607231208689</v>
+        <v>0.9734872427980733</v>
       </c>
       <c r="E10">
-        <v>0.9979607231208689</v>
+        <v>0.9734872427980733</v>
       </c>
       <c r="F10">
-        <v>1.0004267185942</v>
+        <v>1.00330097232208</v>
       </c>
       <c r="G10">
-        <v>1.0004267185942</v>
+        <v>1.00330097232208</v>
       </c>
       <c r="H10">
-        <v>0.9988484803497836</v>
+        <v>0.9842201711011425</v>
       </c>
       <c r="I10">
-        <v>1.001507250637443</v>
+        <v>1.023590241671854</v>
       </c>
       <c r="J10">
-        <v>1.000518298890332</v>
+        <v>1.006967701330089</v>
       </c>
       <c r="K10">
-        <v>1.0004267185942</v>
+        <v>1.00330097232208</v>
       </c>
       <c r="L10">
-        <v>1.000555985571785</v>
+        <v>1.008476653529853</v>
       </c>
       <c r="M10">
-        <v>0.9992583543463269</v>
+        <v>0.9909819481639635</v>
       </c>
       <c r="N10">
-        <v>0.9992583543463269</v>
+        <v>0.9909819481639635</v>
       </c>
       <c r="O10">
-        <v>0.9991217296808125</v>
+        <v>0.9887280224763565</v>
       </c>
       <c r="P10">
-        <v>0.9996478090956179</v>
+        <v>0.9950882895500025</v>
       </c>
       <c r="Q10">
-        <v>0.9996478090956179</v>
+        <v>0.9950882895500023</v>
       </c>
       <c r="R10">
-        <v>0.9998425364702633</v>
+        <v>0.9971414602430219</v>
       </c>
       <c r="S10">
-        <v>0.9998425364702633</v>
+        <v>0.9971414602430219</v>
       </c>
       <c r="T10">
-        <v>0.9999695761940686</v>
+        <v>1.000007163792182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000894761317132</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="D11">
-        <v>0.9967124422259777</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="E11">
-        <v>0.9967124422259777</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="F11">
-        <v>1.000690721479922</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="G11">
-        <v>1.000690721479922</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="H11">
-        <v>0.9981446211295919</v>
+        <v>0.9974126811093089</v>
       </c>
       <c r="I11">
-        <v>1.00242489509959</v>
+        <v>1.002947523430272</v>
       </c>
       <c r="J11">
-        <v>1.00083527652074</v>
+        <v>1.001184715321338</v>
       </c>
       <c r="K11">
-        <v>1.000690721479922</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="L11">
-        <v>1.000894761317132</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="M11">
-        <v>0.9988036017715548</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="N11">
-        <v>0.9988036017715548</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="O11">
-        <v>0.9985839415575671</v>
+        <v>0.9979124585903989</v>
       </c>
       <c r="P11">
-        <v>0.999432641674344</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="Q11">
-        <v>0.999432641674344</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="R11">
-        <v>0.9997471616257385</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="S11">
-        <v>0.9997471616257385</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="T11">
-        <v>0.999950452962159</v>
+        <v>0.9998682146632306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9911915687538168</v>
+        <v>1.000532005489892</v>
       </c>
       <c r="D12">
-        <v>1.02812430450951</v>
+        <v>0.997760053649963</v>
       </c>
       <c r="E12">
-        <v>1.02812430450951</v>
+        <v>0.997760053649963</v>
       </c>
       <c r="F12">
-        <v>0.9961681657979153</v>
+        <v>1.000610351509735</v>
       </c>
       <c r="G12">
-        <v>0.9961681657979153</v>
+        <v>1.000610351509735</v>
       </c>
       <c r="H12">
-        <v>1.016620090270093</v>
+        <v>0.9987861589539501</v>
       </c>
       <c r="I12">
-        <v>0.9755629199462998</v>
+        <v>1.001403759540966</v>
       </c>
       <c r="J12">
-        <v>0.9926424716027454</v>
+        <v>1.000554847811701</v>
       </c>
       <c r="K12">
-        <v>0.9961681657979153</v>
+        <v>1.000610351509735</v>
       </c>
       <c r="L12">
-        <v>0.9911915687538168</v>
+        <v>1.000532005489892</v>
       </c>
       <c r="M12">
-        <v>1.009657936631663</v>
+        <v>0.9991460295699277</v>
       </c>
       <c r="N12">
-        <v>1.009657936631663</v>
+        <v>0.9991460295699277</v>
       </c>
       <c r="O12">
-        <v>1.01197865451114</v>
+        <v>0.9990260726979351</v>
       </c>
       <c r="P12">
-        <v>1.005161346353747</v>
+        <v>0.9996341368831967</v>
       </c>
       <c r="Q12">
-        <v>1.005161346353747</v>
+        <v>0.9996341368831967</v>
       </c>
       <c r="R12">
-        <v>1.002913051214789</v>
+        <v>0.9998781905398312</v>
       </c>
       <c r="S12">
-        <v>1.002913051214789</v>
+        <v>0.9998781905398312</v>
       </c>
       <c r="T12">
-        <v>1.000051586813397</v>
+        <v>0.9999411961593679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9985453766055026</v>
+        <v>1.001707402974654</v>
       </c>
       <c r="D13">
-        <v>1.008842105048209</v>
+        <v>0.9927595642209369</v>
       </c>
       <c r="E13">
-        <v>1.008842105048209</v>
+        <v>0.9927595642209369</v>
       </c>
       <c r="F13">
-        <v>0.9964288541187124</v>
+        <v>1.001994984723136</v>
       </c>
       <c r="G13">
-        <v>0.9964288541187124</v>
+        <v>1.001994984723136</v>
       </c>
       <c r="H13">
-        <v>1.00437333318519</v>
+        <v>0.9960843131062473</v>
       </c>
       <c r="I13">
-        <v>0.9965241456152116</v>
+        <v>1.004498290357461</v>
       </c>
       <c r="J13">
-        <v>0.9979283127626314</v>
+        <v>1.0017912437307</v>
       </c>
       <c r="K13">
-        <v>0.9964288541187124</v>
+        <v>1.001994984723136</v>
       </c>
       <c r="L13">
-        <v>0.9985453766055026</v>
+        <v>1.001707402974654</v>
       </c>
       <c r="M13">
-        <v>1.003693740826856</v>
+        <v>0.9972334835977954</v>
       </c>
       <c r="N13">
-        <v>1.003693740826856</v>
+        <v>0.9972334835977954</v>
       </c>
       <c r="O13">
-        <v>1.003920271612967</v>
+        <v>0.9968504267672794</v>
       </c>
       <c r="P13">
-        <v>1.001272111924141</v>
+        <v>0.9988206506395755</v>
       </c>
       <c r="Q13">
-        <v>1.001272111924141</v>
+        <v>0.9988206506395757</v>
       </c>
       <c r="R13">
-        <v>1.000061297472784</v>
+        <v>0.9996142341604657</v>
       </c>
       <c r="S13">
-        <v>1.000061297472784</v>
+        <v>0.9996142341604657</v>
       </c>
       <c r="T13">
-        <v>1.00044035455591</v>
+        <v>0.9998059665188559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9770848392505382</v>
+        <v>1.002854193392295</v>
       </c>
       <c r="D14">
-        <v>1.088476536302538</v>
+        <v>0.9877900751097498</v>
       </c>
       <c r="E14">
-        <v>1.088476536302538</v>
+        <v>0.9877900751097498</v>
       </c>
       <c r="F14">
-        <v>0.9793137288942677</v>
+        <v>1.003409402729828</v>
       </c>
       <c r="G14">
-        <v>0.9793137288942677</v>
+        <v>1.003409402729828</v>
       </c>
       <c r="H14">
-        <v>1.049177922113154</v>
+        <v>0.9934130307651218</v>
       </c>
       <c r="I14">
-        <v>0.9384683448065863</v>
+        <v>1.007505430850383</v>
       </c>
       <c r="J14">
-        <v>0.977734662465287</v>
+        <v>1.00301606178965</v>
       </c>
       <c r="K14">
-        <v>0.9793137288942677</v>
+        <v>1.003409402729828</v>
       </c>
       <c r="L14">
-        <v>0.9770848392505382</v>
+        <v>1.002854193392295</v>
       </c>
       <c r="M14">
-        <v>1.032780687776538</v>
+        <v>0.9953221342510223</v>
       </c>
       <c r="N14">
-        <v>1.032780687776538</v>
+        <v>0.9953221342510223</v>
       </c>
       <c r="O14">
-        <v>1.03824643255541</v>
+        <v>0.9946857664223888</v>
       </c>
       <c r="P14">
-        <v>1.014958368149115</v>
+        <v>0.9980178904106243</v>
       </c>
       <c r="Q14">
-        <v>1.014958368149115</v>
+        <v>0.9980178904106243</v>
       </c>
       <c r="R14">
-        <v>1.006047208335403</v>
+        <v>0.9993657684904252</v>
       </c>
       <c r="S14">
-        <v>1.006047208335403</v>
+        <v>0.9993657684904252</v>
       </c>
       <c r="T14">
-        <v>1.001709338972062</v>
+        <v>0.9996646991061713</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9943369408610638</v>
+        <v>1.0010211017119</v>
       </c>
       <c r="D15">
-        <v>1.024046583820464</v>
+        <v>0.9956122678745017</v>
       </c>
       <c r="E15">
-        <v>1.024046583820464</v>
+        <v>0.9956122678745017</v>
       </c>
       <c r="F15">
-        <v>0.9933608914832228</v>
+        <v>1.001233428946683</v>
       </c>
       <c r="G15">
-        <v>0.9933608914832228</v>
+        <v>1.001233428946683</v>
       </c>
       <c r="H15">
-        <v>1.012999733092003</v>
+        <v>0.9976358842344779</v>
       </c>
       <c r="I15">
-        <v>0.9850844335556901</v>
+        <v>1.002682495000114</v>
       </c>
       <c r="J15">
-        <v>0.9940523900413201</v>
+        <v>1.001083005391878</v>
       </c>
       <c r="K15">
-        <v>0.9933608914832228</v>
+        <v>1.001233428946683</v>
       </c>
       <c r="L15">
-        <v>0.9943369408610638</v>
+        <v>1.0010211017119</v>
       </c>
       <c r="M15">
-        <v>1.009191762340764</v>
+        <v>0.9983166847932006</v>
       </c>
       <c r="N15">
-        <v>1.009191762340764</v>
+        <v>0.9983166847932006</v>
       </c>
       <c r="O15">
-        <v>1.01046108592451</v>
+        <v>0.9980897512736263</v>
       </c>
       <c r="P15">
-        <v>1.00391480538825</v>
+        <v>0.9992889328443613</v>
       </c>
       <c r="Q15">
-        <v>1.00391480538825</v>
+        <v>0.9992889328443613</v>
       </c>
       <c r="R15">
-        <v>1.001276326911993</v>
+        <v>0.9997750568699416</v>
       </c>
       <c r="S15">
-        <v>1.001276326911993</v>
+        <v>0.9997750568699416</v>
       </c>
       <c r="T15">
-        <v>1.00064682880896</v>
+        <v>0.9998780305265923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.020025909954428</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="D16">
-        <v>0.914643652854599</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="E16">
-        <v>0.914643652854599</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="F16">
-        <v>1.023702793640468</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="G16">
-        <v>1.023702793640468</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="H16">
-        <v>0.9539049443635378</v>
+        <v>0.9954363615445415</v>
       </c>
       <c r="I16">
-        <v>1.052702081315154</v>
+        <v>1.005186849739861</v>
       </c>
       <c r="J16">
-        <v>1.021097895611319</v>
+        <v>1.002090214711779</v>
       </c>
       <c r="K16">
-        <v>1.023702793640468</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="L16">
-        <v>1.020025909954428</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="M16">
-        <v>0.9673347814045137</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="N16">
-        <v>0.9673347814045137</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="O16">
-        <v>0.9628581690575216</v>
+        <v>0.9963147378153211</v>
       </c>
       <c r="P16">
-        <v>0.9861241188164985</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="Q16">
-        <v>0.9861241188164985</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="R16">
-        <v>0.9955187875224909</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="S16">
-        <v>0.9955187875224909</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="T16">
-        <v>0.9976795462899175</v>
+        <v>0.9997657979562765</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.016651934564236</v>
+        <v>1.003786174389874</v>
       </c>
       <c r="D17">
-        <v>0.9307140474588046</v>
+        <v>0.9837840647070265</v>
       </c>
       <c r="E17">
-        <v>0.9307140474588046</v>
+        <v>0.9837840647070265</v>
       </c>
       <c r="F17">
-        <v>1.018526676657326</v>
+        <v>1.00453604504173</v>
       </c>
       <c r="G17">
-        <v>1.018526676657326</v>
+        <v>1.00453604504173</v>
       </c>
       <c r="H17">
-        <v>0.962326594017575</v>
+        <v>0.9912547716249811</v>
       </c>
       <c r="I17">
-        <v>1.044048074372706</v>
+        <v>1.009953628544868</v>
       </c>
       <c r="J17">
-        <v>1.017198512372287</v>
+        <v>1.004004792892524</v>
       </c>
       <c r="K17">
-        <v>1.018526676657326</v>
+        <v>1.00453604504173</v>
       </c>
       <c r="L17">
-        <v>1.016651934564236</v>
+        <v>1.003786174389874</v>
       </c>
       <c r="M17">
-        <v>0.9736829910115203</v>
+        <v>0.9937851195484502</v>
       </c>
       <c r="N17">
-        <v>0.9736829910115203</v>
+        <v>0.9937851195484502</v>
       </c>
       <c r="O17">
-        <v>0.9698975253468719</v>
+        <v>0.9929416702406272</v>
       </c>
       <c r="P17">
-        <v>0.9886308862267891</v>
+        <v>0.9973687613795436</v>
       </c>
       <c r="Q17">
-        <v>0.9886308862267891</v>
+        <v>0.9973687613795436</v>
       </c>
       <c r="R17">
-        <v>0.9961048338344234</v>
+        <v>0.9991605822950902</v>
       </c>
       <c r="S17">
-        <v>0.9961048338344234</v>
+        <v>0.9991605822950902</v>
       </c>
       <c r="T17">
-        <v>0.9982443065738226</v>
+        <v>0.9995532462001672</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009840278895299</v>
+        <v>1.005556065579625</v>
       </c>
       <c r="D18">
-        <v>0.9630621659235005</v>
+        <v>0.9762221508534854</v>
       </c>
       <c r="E18">
-        <v>0.9630621659235005</v>
+        <v>0.9762221508534854</v>
       </c>
       <c r="F18">
-        <v>1.00814398473707</v>
+        <v>1.006643574690273</v>
       </c>
       <c r="G18">
-        <v>1.00814398473707</v>
+        <v>1.006643574690273</v>
       </c>
       <c r="H18">
-        <v>0.9792916194161195</v>
+        <v>0.9871738633053729</v>
       </c>
       <c r="I18">
-        <v>1.026563842158782</v>
+        <v>1.014609031004232</v>
       </c>
       <c r="J18">
-        <v>1.009345732226067</v>
+        <v>1.00587312627509</v>
       </c>
       <c r="K18">
-        <v>1.00814398473707</v>
+        <v>1.006643574690273</v>
       </c>
       <c r="L18">
-        <v>1.009840278895299</v>
+        <v>1.005556065579625</v>
       </c>
       <c r="M18">
-        <v>0.9864512224093998</v>
+        <v>0.9908891082165554</v>
       </c>
       <c r="N18">
-        <v>0.9864512224093998</v>
+        <v>0.9908891082165554</v>
       </c>
       <c r="O18">
-        <v>0.9840646880783064</v>
+        <v>0.9896506932461612</v>
       </c>
       <c r="P18">
-        <v>0.99368214318529</v>
+        <v>0.9961405970411281</v>
       </c>
       <c r="Q18">
-        <v>0.9936821431852899</v>
+        <v>0.9961405970411281</v>
       </c>
       <c r="R18">
-        <v>0.997297603573235</v>
+        <v>0.9987663414534145</v>
       </c>
       <c r="S18">
-        <v>0.997297603573235</v>
+        <v>0.9987663414534145</v>
       </c>
       <c r="T18">
-        <v>0.9993746038928063</v>
+        <v>0.9993463019513465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010920290494245</v>
+        <v>1.00007685456448</v>
       </c>
       <c r="D19">
-        <v>0.9597766204022152</v>
+        <v>0.9997185446232341</v>
       </c>
       <c r="E19">
-        <v>0.9597766204022152</v>
+        <v>0.9997185446232341</v>
       </c>
       <c r="F19">
-        <v>1.008499846049217</v>
+        <v>1.000058679560107</v>
       </c>
       <c r="G19">
-        <v>1.008499846049217</v>
+        <v>1.000058679560107</v>
       </c>
       <c r="H19">
-        <v>0.9773169775752665</v>
+        <v>0.9998409913550216</v>
       </c>
       <c r="I19">
-        <v>1.029581804506521</v>
+        <v>1.000208408513015</v>
       </c>
       <c r="J19">
-        <v>1.010214623597769</v>
+        <v>1.000071556521662</v>
       </c>
       <c r="K19">
-        <v>1.008499846049217</v>
+        <v>1.000058679560107</v>
       </c>
       <c r="L19">
-        <v>1.010920290494245</v>
+        <v>1.00007685456448</v>
       </c>
       <c r="M19">
-        <v>0.9853484554482301</v>
+        <v>0.9998976995938573</v>
       </c>
       <c r="N19">
-        <v>0.9853484554482301</v>
+        <v>0.9998976995938573</v>
       </c>
       <c r="O19">
-        <v>0.9826712961572422</v>
+        <v>0.9998787968475787</v>
       </c>
       <c r="P19">
-        <v>0.9930655856485592</v>
+        <v>0.9999513595826072</v>
       </c>
       <c r="Q19">
-        <v>0.9930655856485592</v>
+        <v>0.9999513595826071</v>
       </c>
       <c r="R19">
-        <v>0.9969241507487238</v>
+        <v>0.9999781895769819</v>
       </c>
       <c r="S19">
-        <v>0.9969241507487238</v>
+        <v>0.9999781895769819</v>
       </c>
       <c r="T19">
-        <v>0.9993850271042057</v>
+        <v>0.9999958391895866</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999981033281633</v>
+        <v>1.000189112210875</v>
       </c>
       <c r="D20">
-        <v>0.9999699858777615</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="E20">
-        <v>0.9999699858777615</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="F20">
-        <v>1.000024422960866</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="G20">
-        <v>1.000024422960866</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="H20">
-        <v>0.9999895813975754</v>
+        <v>0.999608813426451</v>
       </c>
       <c r="I20">
-        <v>0.9999899299238119</v>
+        <v>1.000512842322725</v>
       </c>
       <c r="J20">
-        <v>1.000005777465299</v>
+        <v>1.000176035488181</v>
       </c>
       <c r="K20">
-        <v>1.000024422960866</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="L20">
-        <v>0.9999981033281633</v>
+        <v>1.000189112210875</v>
       </c>
       <c r="M20">
-        <v>0.9999840446029624</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="N20">
-        <v>0.9999840446029624</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="O20">
-        <v>0.9999858902011667</v>
+        <v>0.9997018515254538</v>
       </c>
       <c r="P20">
-        <v>0.9999975040555968</v>
+        <v>0.999880332966763</v>
       </c>
       <c r="Q20">
-        <v>0.9999975040555968</v>
+        <v>0.999880332966763</v>
       </c>
       <c r="R20">
-        <v>1.000004233781914</v>
+        <v>0.9999463141626668</v>
       </c>
       <c r="S20">
-        <v>1.000004233781914</v>
+        <v>0.9999463141626668</v>
       </c>
       <c r="T20">
-        <v>0.9999963001589128</v>
+        <v>0.9999897816896076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000111383537085</v>
+        <v>1.000253115284029</v>
       </c>
       <c r="D21">
-        <v>0.9996592626853948</v>
+        <v>0.9990721756550945</v>
       </c>
       <c r="E21">
-        <v>0.9996592626853948</v>
+        <v>0.9990721756550945</v>
       </c>
       <c r="F21">
-        <v>1.000038025594662</v>
+        <v>1.000193869221197</v>
       </c>
       <c r="G21">
-        <v>1.000038025594662</v>
+        <v>1.000193869221197</v>
       </c>
       <c r="H21">
-        <v>0.9997956157987048</v>
+        <v>0.9994759836760613</v>
       </c>
       <c r="I21">
-        <v>1.000310994615597</v>
+        <v>1.000686259985648</v>
       </c>
       <c r="J21">
-        <v>1.000089996663414</v>
+        <v>1.000235842973962</v>
       </c>
       <c r="K21">
-        <v>1.000038025594662</v>
+        <v>1.000193869221197</v>
       </c>
       <c r="L21">
-        <v>1.000111383537085</v>
+        <v>1.000253115284029</v>
       </c>
       <c r="M21">
-        <v>0.9998853231112401</v>
+        <v>0.9996626454695616</v>
       </c>
       <c r="N21">
-        <v>0.9998853231112401</v>
+        <v>0.9996626454695616</v>
       </c>
       <c r="O21">
-        <v>0.9998554206737283</v>
+        <v>0.9996004248717282</v>
       </c>
       <c r="P21">
-        <v>0.9999362239390476</v>
+        <v>0.9998397200534401</v>
       </c>
       <c r="Q21">
-        <v>0.9999362239390476</v>
+        <v>0.9998397200534401</v>
       </c>
       <c r="R21">
-        <v>0.9999616743529512</v>
+        <v>0.9999282573453794</v>
       </c>
       <c r="S21">
-        <v>0.9999616743529512</v>
+        <v>0.9999282573453794</v>
       </c>
       <c r="T21">
-        <v>1.00000087981581</v>
+        <v>0.9999862077993319</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.00028712889534</v>
+        <v>1.000555985571785</v>
       </c>
       <c r="D22">
-        <v>0.998596007609981</v>
+        <v>0.9979607231208689</v>
       </c>
       <c r="E22">
-        <v>0.998596007609981</v>
+        <v>0.9979607231208689</v>
       </c>
       <c r="F22">
-        <v>1.000465965022148</v>
+        <v>1.0004267185942</v>
       </c>
       <c r="G22">
-        <v>1.000465965022148</v>
+        <v>1.0004267185942</v>
       </c>
       <c r="H22">
-        <v>0.9992691903481919</v>
+        <v>0.9988484803497836</v>
       </c>
       <c r="I22">
-        <v>1.00073160892113</v>
+        <v>1.001507250637443</v>
       </c>
       <c r="J22">
-        <v>1.000339268467195</v>
+        <v>1.000518298890332</v>
       </c>
       <c r="K22">
-        <v>1.000465965022148</v>
+        <v>1.0004267185942</v>
       </c>
       <c r="L22">
-        <v>1.00028712889534</v>
+        <v>1.000555985571785</v>
       </c>
       <c r="M22">
-        <v>0.9994415682526603</v>
+        <v>0.9992583543463269</v>
       </c>
       <c r="N22">
-        <v>0.9994415682526603</v>
+        <v>0.9992583543463269</v>
       </c>
       <c r="O22">
-        <v>0.9993841089511708</v>
+        <v>0.9991217296808125</v>
       </c>
       <c r="P22">
-        <v>0.9997830338424895</v>
+        <v>0.9996478090956179</v>
       </c>
       <c r="Q22">
-        <v>0.9997830338424896</v>
+        <v>0.9996478090956179</v>
       </c>
       <c r="R22">
-        <v>0.9999537666374041</v>
+        <v>0.9998425364702633</v>
       </c>
       <c r="S22">
-        <v>0.9999537666374041</v>
+        <v>0.9998425364702633</v>
       </c>
       <c r="T22">
-        <v>0.999948194877331</v>
+        <v>0.9999695761940686</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000894761317132</v>
+      </c>
+      <c r="D23">
+        <v>0.9967124422259777</v>
+      </c>
+      <c r="E23">
+        <v>0.9967124422259777</v>
+      </c>
+      <c r="F23">
+        <v>1.000690721479922</v>
+      </c>
+      <c r="G23">
+        <v>1.000690721479922</v>
+      </c>
+      <c r="H23">
+        <v>0.9981446211295919</v>
+      </c>
+      <c r="I23">
+        <v>1.00242489509959</v>
+      </c>
+      <c r="J23">
+        <v>1.00083527652074</v>
+      </c>
+      <c r="K23">
+        <v>1.000690721479922</v>
+      </c>
+      <c r="L23">
+        <v>1.000894761317132</v>
+      </c>
+      <c r="M23">
+        <v>0.9988036017715548</v>
+      </c>
+      <c r="N23">
+        <v>0.9988036017715548</v>
+      </c>
+      <c r="O23">
+        <v>0.9985839415575671</v>
+      </c>
+      <c r="P23">
+        <v>0.999432641674344</v>
+      </c>
+      <c r="Q23">
+        <v>0.999432641674344</v>
+      </c>
+      <c r="R23">
+        <v>0.9997471616257385</v>
+      </c>
+      <c r="S23">
+        <v>0.9997471616257385</v>
+      </c>
+      <c r="T23">
+        <v>0.999950452962159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9911915687538168</v>
+      </c>
+      <c r="D24">
+        <v>1.02812430450951</v>
+      </c>
+      <c r="E24">
+        <v>1.02812430450951</v>
+      </c>
+      <c r="F24">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="G24">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="H24">
+        <v>1.016620090270093</v>
+      </c>
+      <c r="I24">
+        <v>0.9755629199462998</v>
+      </c>
+      <c r="J24">
+        <v>0.9926424716027454</v>
+      </c>
+      <c r="K24">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="L24">
+        <v>0.9911915687538168</v>
+      </c>
+      <c r="M24">
+        <v>1.009657936631663</v>
+      </c>
+      <c r="N24">
+        <v>1.009657936631663</v>
+      </c>
+      <c r="O24">
+        <v>1.01197865451114</v>
+      </c>
+      <c r="P24">
+        <v>1.005161346353747</v>
+      </c>
+      <c r="Q24">
+        <v>1.005161346353747</v>
+      </c>
+      <c r="R24">
+        <v>1.002913051214789</v>
+      </c>
+      <c r="S24">
+        <v>1.002913051214789</v>
+      </c>
+      <c r="T24">
+        <v>1.000051586813397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9985453766055026</v>
+      </c>
+      <c r="D25">
+        <v>1.008842105048209</v>
+      </c>
+      <c r="E25">
+        <v>1.008842105048209</v>
+      </c>
+      <c r="F25">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="G25">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="H25">
+        <v>1.00437333318519</v>
+      </c>
+      <c r="I25">
+        <v>0.9965241456152116</v>
+      </c>
+      <c r="J25">
+        <v>0.9979283127626314</v>
+      </c>
+      <c r="K25">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="L25">
+        <v>0.9985453766055026</v>
+      </c>
+      <c r="M25">
+        <v>1.003693740826856</v>
+      </c>
+      <c r="N25">
+        <v>1.003693740826856</v>
+      </c>
+      <c r="O25">
+        <v>1.003920271612967</v>
+      </c>
+      <c r="P25">
+        <v>1.001272111924141</v>
+      </c>
+      <c r="Q25">
+        <v>1.001272111924141</v>
+      </c>
+      <c r="R25">
+        <v>1.000061297472784</v>
+      </c>
+      <c r="S25">
+        <v>1.000061297472784</v>
+      </c>
+      <c r="T25">
+        <v>1.00044035455591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9770848392505382</v>
+      </c>
+      <c r="D26">
+        <v>1.088476536302538</v>
+      </c>
+      <c r="E26">
+        <v>1.088476536302538</v>
+      </c>
+      <c r="F26">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="G26">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="H26">
+        <v>1.049177922113154</v>
+      </c>
+      <c r="I26">
+        <v>0.9384683448065863</v>
+      </c>
+      <c r="J26">
+        <v>0.977734662465287</v>
+      </c>
+      <c r="K26">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="L26">
+        <v>0.9770848392505382</v>
+      </c>
+      <c r="M26">
+        <v>1.032780687776538</v>
+      </c>
+      <c r="N26">
+        <v>1.032780687776538</v>
+      </c>
+      <c r="O26">
+        <v>1.03824643255541</v>
+      </c>
+      <c r="P26">
+        <v>1.014958368149115</v>
+      </c>
+      <c r="Q26">
+        <v>1.014958368149115</v>
+      </c>
+      <c r="R26">
+        <v>1.006047208335403</v>
+      </c>
+      <c r="S26">
+        <v>1.006047208335403</v>
+      </c>
+      <c r="T26">
+        <v>1.001709338972062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9943369408610638</v>
+      </c>
+      <c r="D27">
+        <v>1.024046583820464</v>
+      </c>
+      <c r="E27">
+        <v>1.024046583820464</v>
+      </c>
+      <c r="F27">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="G27">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="H27">
+        <v>1.012999733092003</v>
+      </c>
+      <c r="I27">
+        <v>0.9850844335556901</v>
+      </c>
+      <c r="J27">
+        <v>0.9940523900413201</v>
+      </c>
+      <c r="K27">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="L27">
+        <v>0.9943369408610638</v>
+      </c>
+      <c r="M27">
+        <v>1.009191762340764</v>
+      </c>
+      <c r="N27">
+        <v>1.009191762340764</v>
+      </c>
+      <c r="O27">
+        <v>1.01046108592451</v>
+      </c>
+      <c r="P27">
+        <v>1.00391480538825</v>
+      </c>
+      <c r="Q27">
+        <v>1.00391480538825</v>
+      </c>
+      <c r="R27">
+        <v>1.001276326911993</v>
+      </c>
+      <c r="S27">
+        <v>1.001276326911993</v>
+      </c>
+      <c r="T27">
+        <v>1.00064682880896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.020025909954428</v>
+      </c>
+      <c r="D28">
+        <v>0.914643652854599</v>
+      </c>
+      <c r="E28">
+        <v>0.914643652854599</v>
+      </c>
+      <c r="F28">
+        <v>1.023702793640468</v>
+      </c>
+      <c r="G28">
+        <v>1.023702793640468</v>
+      </c>
+      <c r="H28">
+        <v>0.9539049443635378</v>
+      </c>
+      <c r="I28">
+        <v>1.052702081315154</v>
+      </c>
+      <c r="J28">
+        <v>1.021097895611319</v>
+      </c>
+      <c r="K28">
+        <v>1.023702793640468</v>
+      </c>
+      <c r="L28">
+        <v>1.020025909954428</v>
+      </c>
+      <c r="M28">
+        <v>0.9673347814045137</v>
+      </c>
+      <c r="N28">
+        <v>0.9673347814045137</v>
+      </c>
+      <c r="O28">
+        <v>0.9628581690575216</v>
+      </c>
+      <c r="P28">
+        <v>0.9861241188164985</v>
+      </c>
+      <c r="Q28">
+        <v>0.9861241188164985</v>
+      </c>
+      <c r="R28">
+        <v>0.9955187875224909</v>
+      </c>
+      <c r="S28">
+        <v>0.9955187875224909</v>
+      </c>
+      <c r="T28">
+        <v>0.9976795462899175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.016651934564236</v>
+      </c>
+      <c r="D29">
+        <v>0.9307140474588046</v>
+      </c>
+      <c r="E29">
+        <v>0.9307140474588046</v>
+      </c>
+      <c r="F29">
+        <v>1.018526676657326</v>
+      </c>
+      <c r="G29">
+        <v>1.018526676657326</v>
+      </c>
+      <c r="H29">
+        <v>0.962326594017575</v>
+      </c>
+      <c r="I29">
+        <v>1.044048074372706</v>
+      </c>
+      <c r="J29">
+        <v>1.017198512372287</v>
+      </c>
+      <c r="K29">
+        <v>1.018526676657326</v>
+      </c>
+      <c r="L29">
+        <v>1.016651934564236</v>
+      </c>
+      <c r="M29">
+        <v>0.9736829910115203</v>
+      </c>
+      <c r="N29">
+        <v>0.9736829910115203</v>
+      </c>
+      <c r="O29">
+        <v>0.9698975253468719</v>
+      </c>
+      <c r="P29">
+        <v>0.9886308862267891</v>
+      </c>
+      <c r="Q29">
+        <v>0.9886308862267891</v>
+      </c>
+      <c r="R29">
+        <v>0.9961048338344234</v>
+      </c>
+      <c r="S29">
+        <v>0.9961048338344234</v>
+      </c>
+      <c r="T29">
+        <v>0.9982443065738226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009840278895299</v>
+      </c>
+      <c r="D30">
+        <v>0.9630621659235005</v>
+      </c>
+      <c r="E30">
+        <v>0.9630621659235005</v>
+      </c>
+      <c r="F30">
+        <v>1.00814398473707</v>
+      </c>
+      <c r="G30">
+        <v>1.00814398473707</v>
+      </c>
+      <c r="H30">
+        <v>0.9792916194161195</v>
+      </c>
+      <c r="I30">
+        <v>1.026563842158782</v>
+      </c>
+      <c r="J30">
+        <v>1.009345732226067</v>
+      </c>
+      <c r="K30">
+        <v>1.00814398473707</v>
+      </c>
+      <c r="L30">
+        <v>1.009840278895299</v>
+      </c>
+      <c r="M30">
+        <v>0.9864512224093998</v>
+      </c>
+      <c r="N30">
+        <v>0.9864512224093998</v>
+      </c>
+      <c r="O30">
+        <v>0.9840646880783064</v>
+      </c>
+      <c r="P30">
+        <v>0.99368214318529</v>
+      </c>
+      <c r="Q30">
+        <v>0.9936821431852899</v>
+      </c>
+      <c r="R30">
+        <v>0.997297603573235</v>
+      </c>
+      <c r="S30">
+        <v>0.997297603573235</v>
+      </c>
+      <c r="T30">
+        <v>0.9993746038928063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010920290494245</v>
+      </c>
+      <c r="D31">
+        <v>0.9597766204022152</v>
+      </c>
+      <c r="E31">
+        <v>0.9597766204022152</v>
+      </c>
+      <c r="F31">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="G31">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="H31">
+        <v>0.9773169775752665</v>
+      </c>
+      <c r="I31">
+        <v>1.029581804506521</v>
+      </c>
+      <c r="J31">
+        <v>1.010214623597769</v>
+      </c>
+      <c r="K31">
+        <v>1.008499846049217</v>
+      </c>
+      <c r="L31">
+        <v>1.010920290494245</v>
+      </c>
+      <c r="M31">
+        <v>0.9853484554482301</v>
+      </c>
+      <c r="N31">
+        <v>0.9853484554482301</v>
+      </c>
+      <c r="O31">
+        <v>0.9826712961572422</v>
+      </c>
+      <c r="P31">
+        <v>0.9930655856485592</v>
+      </c>
+      <c r="Q31">
+        <v>0.9930655856485592</v>
+      </c>
+      <c r="R31">
+        <v>0.9969241507487238</v>
+      </c>
+      <c r="S31">
+        <v>0.9969241507487238</v>
+      </c>
+      <c r="T31">
+        <v>0.9993850271042057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.023104871780822</v>
+      </c>
+      <c r="D32">
+        <v>0.8999194030136988</v>
+      </c>
+      <c r="E32">
+        <v>0.8999194030136988</v>
+      </c>
+      <c r="F32">
+        <v>1.028467633972603</v>
+      </c>
+      <c r="G32">
+        <v>1.028467633972603</v>
+      </c>
+      <c r="H32">
+        <v>0.9461967676712326</v>
+      </c>
+      <c r="I32">
+        <v>1.060591530547945</v>
+      </c>
+      <c r="J32">
+        <v>1.024668369178082</v>
+      </c>
+      <c r="K32">
+        <v>1.028467633972603</v>
+      </c>
+      <c r="L32">
+        <v>1.023104871780822</v>
+      </c>
+      <c r="M32">
+        <v>0.9615121373972606</v>
+      </c>
+      <c r="N32">
+        <v>0.9615121373972606</v>
+      </c>
+      <c r="O32">
+        <v>0.9564070141552513</v>
+      </c>
+      <c r="P32">
+        <v>0.9838306362557079</v>
+      </c>
+      <c r="Q32">
+        <v>0.9838306362557079</v>
+      </c>
+      <c r="R32">
+        <v>0.9949898856849315</v>
+      </c>
+      <c r="S32">
+        <v>0.9949898856849315</v>
+      </c>
+      <c r="T32">
+        <v>0.9971580960273974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001951975263158</v>
+      </c>
+      <c r="D33">
+        <v>0.9912253752631578</v>
+      </c>
+      <c r="E33">
+        <v>0.9912253752631578</v>
+      </c>
+      <c r="F33">
+        <v>1.002628680526316</v>
+      </c>
+      <c r="G33">
+        <v>1.002628680526316</v>
+      </c>
+      <c r="H33">
+        <v>0.9953305584210527</v>
+      </c>
+      <c r="I33">
+        <v>1.005076374736842</v>
+      </c>
+      <c r="J33">
+        <v>1.002149272631579</v>
+      </c>
+      <c r="K33">
+        <v>1.002628680526316</v>
+      </c>
+      <c r="L33">
+        <v>1.001951975263158</v>
+      </c>
+      <c r="M33">
+        <v>0.9965886752631579</v>
+      </c>
+      <c r="N33">
+        <v>0.9965886752631579</v>
+      </c>
+      <c r="O33">
+        <v>0.9961693029824561</v>
+      </c>
+      <c r="P33">
+        <v>0.9986020103508771</v>
+      </c>
+      <c r="Q33">
+        <v>0.9986020103508771</v>
+      </c>
+      <c r="R33">
+        <v>0.9996086778947368</v>
+      </c>
+      <c r="S33">
+        <v>0.9996086778947368</v>
+      </c>
+      <c r="T33">
+        <v>0.9997270394736842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.012336001052632</v>
+      </c>
+      <c r="D34">
+        <v>0.9589977078947367</v>
+      </c>
+      <c r="E34">
+        <v>0.9589977078947367</v>
+      </c>
+      <c r="F34">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="G34">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="H34">
+        <v>0.976097375263158</v>
+      </c>
+      <c r="I34">
+        <v>1.03400821631579</v>
+      </c>
+      <c r="J34">
+        <v>1.010633609473684</v>
+      </c>
+      <c r="K34">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="L34">
+        <v>1.012336001052632</v>
+      </c>
+      <c r="M34">
+        <v>0.9856668544736842</v>
+      </c>
+      <c r="N34">
+        <v>0.9856668544736842</v>
+      </c>
+      <c r="O34">
+        <v>0.9824770280701755</v>
+      </c>
+      <c r="P34">
+        <v>0.9926101770175438</v>
+      </c>
+      <c r="Q34">
+        <v>0.9926101770175438</v>
+      </c>
+      <c r="R34">
+        <v>0.9960818382894737</v>
+      </c>
+      <c r="S34">
+        <v>0.9960818382894737</v>
+      </c>
+      <c r="T34">
+        <v>0.9997616220175439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.039938905885167</v>
+      </c>
+      <c r="D35">
+        <v>0.853964538299646</v>
+      </c>
+      <c r="E35">
+        <v>0.853964538299646</v>
+      </c>
+      <c r="F35">
+        <v>1.030334796282148</v>
+      </c>
+      <c r="G35">
+        <v>1.030334796282148</v>
+      </c>
+      <c r="H35">
+        <v>0.9174578266320872</v>
+      </c>
+      <c r="I35">
+        <v>1.108333108180747</v>
+      </c>
+      <c r="J35">
+        <v>1.03713888439432</v>
+      </c>
+      <c r="K35">
+        <v>1.030334796282148</v>
+      </c>
+      <c r="L35">
+        <v>1.039938905885167</v>
+      </c>
+      <c r="M35">
+        <v>0.9469517220924066</v>
+      </c>
+      <c r="N35">
+        <v>0.9469517220924066</v>
+      </c>
+      <c r="O35">
+        <v>0.9371204236056334</v>
+      </c>
+      <c r="P35">
+        <v>0.9747460801556537</v>
+      </c>
+      <c r="Q35">
+        <v>0.9747460801556537</v>
+      </c>
+      <c r="R35">
+        <v>0.9886432591872771</v>
+      </c>
+      <c r="S35">
+        <v>0.9886432591872771</v>
+      </c>
+      <c r="T35">
+        <v>0.9978613432790192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999981033281633</v>
+      </c>
+      <c r="D36">
+        <v>0.9999699858777615</v>
+      </c>
+      <c r="E36">
+        <v>0.9999699858777615</v>
+      </c>
+      <c r="F36">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="G36">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="H36">
+        <v>0.9999895813975754</v>
+      </c>
+      <c r="I36">
+        <v>0.9999899299238119</v>
+      </c>
+      <c r="J36">
+        <v>1.000005777465299</v>
+      </c>
+      <c r="K36">
+        <v>1.000024422960866</v>
+      </c>
+      <c r="L36">
+        <v>0.9999981033281633</v>
+      </c>
+      <c r="M36">
+        <v>0.9999840446029624</v>
+      </c>
+      <c r="N36">
+        <v>0.9999840446029624</v>
+      </c>
+      <c r="O36">
+        <v>0.9999858902011667</v>
+      </c>
+      <c r="P36">
+        <v>0.9999975040555968</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999975040555968</v>
+      </c>
+      <c r="R36">
+        <v>1.000004233781914</v>
+      </c>
+      <c r="S36">
+        <v>1.000004233781914</v>
+      </c>
+      <c r="T36">
+        <v>0.9999963001589128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000111383537085</v>
+      </c>
+      <c r="D37">
+        <v>0.9996592626853948</v>
+      </c>
+      <c r="E37">
+        <v>0.9996592626853948</v>
+      </c>
+      <c r="F37">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="G37">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="H37">
+        <v>0.9997956157987048</v>
+      </c>
+      <c r="I37">
+        <v>1.000310994615597</v>
+      </c>
+      <c r="J37">
+        <v>1.000089996663414</v>
+      </c>
+      <c r="K37">
+        <v>1.000038025594662</v>
+      </c>
+      <c r="L37">
+        <v>1.000111383537085</v>
+      </c>
+      <c r="M37">
+        <v>0.9998853231112401</v>
+      </c>
+      <c r="N37">
+        <v>0.9998853231112401</v>
+      </c>
+      <c r="O37">
+        <v>0.9998554206737283</v>
+      </c>
+      <c r="P37">
+        <v>0.9999362239390476</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999362239390476</v>
+      </c>
+      <c r="R37">
+        <v>0.9999616743529512</v>
+      </c>
+      <c r="S37">
+        <v>0.9999616743529512</v>
+      </c>
+      <c r="T37">
+        <v>1.00000087981581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.00028712889534</v>
+      </c>
+      <c r="D38">
+        <v>0.998596007609981</v>
+      </c>
+      <c r="E38">
+        <v>0.998596007609981</v>
+      </c>
+      <c r="F38">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="G38">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="H38">
+        <v>0.9992691903481919</v>
+      </c>
+      <c r="I38">
+        <v>1.00073160892113</v>
+      </c>
+      <c r="J38">
+        <v>1.000339268467195</v>
+      </c>
+      <c r="K38">
+        <v>1.000465965022148</v>
+      </c>
+      <c r="L38">
+        <v>1.00028712889534</v>
+      </c>
+      <c r="M38">
+        <v>0.9994415682526603</v>
+      </c>
+      <c r="N38">
+        <v>0.9994415682526603</v>
+      </c>
+      <c r="O38">
+        <v>0.9993841089511708</v>
+      </c>
+      <c r="P38">
+        <v>0.9997830338424895</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997830338424896</v>
+      </c>
+      <c r="R38">
+        <v>0.9999537666374041</v>
+      </c>
+      <c r="S38">
+        <v>0.9999537666374041</v>
+      </c>
+      <c r="T38">
+        <v>0.999948194877331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00060349543936</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9965762904395246</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9965762904395246</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001310310831088</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.001310310831088</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9982805275650131</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00147468358275</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000809563313386</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.001310310831088</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00060349543936</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9985898929394422</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9985898929394422</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9984867711479658</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9994966989033243</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9994966989033243</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999501018852652</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999501018852652</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9998424785285204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.003048857404927</v>
+      </c>
+      <c r="D40">
+        <v>0.9855482365074917</v>
+      </c>
+      <c r="E40">
+        <v>0.9855482365074917</v>
+      </c>
+      <c r="F40">
+        <v>1.004628289741271</v>
+      </c>
+      <c r="G40">
+        <v>1.004628289741271</v>
+      </c>
+      <c r="H40">
+        <v>0.9924170532380969</v>
+      </c>
+      <c r="I40">
+        <v>1.007829445302836</v>
+      </c>
+      <c r="J40">
+        <v>1.003509333914165</v>
+      </c>
+      <c r="K40">
+        <v>1.004628289741271</v>
+      </c>
+      <c r="L40">
+        <v>1.003048857404927</v>
+      </c>
+      <c r="M40">
+        <v>0.9942985469562093</v>
+      </c>
+      <c r="N40">
+        <v>0.9942985469562093</v>
+      </c>
+      <c r="O40">
+        <v>0.9936713823835053</v>
+      </c>
+      <c r="P40">
+        <v>0.99774179455123</v>
+      </c>
+      <c r="Q40">
+        <v>0.99774179455123</v>
+      </c>
+      <c r="R40">
+        <v>0.9994634183487403</v>
+      </c>
+      <c r="S40">
+        <v>0.9994634183487403</v>
+      </c>
+      <c r="T40">
+        <v>0.9994968693514646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000710601641334</v>
+      </c>
+      <c r="D41">
+        <v>0.9975179909029602</v>
+      </c>
+      <c r="E41">
+        <v>0.9975179909029602</v>
+      </c>
+      <c r="F41">
+        <v>1.000458322033041</v>
+      </c>
+      <c r="G41">
+        <v>1.000458322033041</v>
+      </c>
+      <c r="H41">
+        <v>0.9985765084854663</v>
+      </c>
+      <c r="I41">
+        <v>1.001942991702667</v>
+      </c>
+      <c r="J41">
+        <v>1.000637050854079</v>
+      </c>
+      <c r="K41">
+        <v>1.000458322033041</v>
+      </c>
+      <c r="L41">
+        <v>1.000710601641334</v>
+      </c>
+      <c r="M41">
+        <v>0.9991142962721471</v>
+      </c>
+      <c r="N41">
+        <v>0.9991142962721471</v>
+      </c>
+      <c r="O41">
+        <v>0.9989350336765869</v>
+      </c>
+      <c r="P41">
+        <v>0.9995623048591117</v>
+      </c>
+      <c r="Q41">
+        <v>0.9995623048591117</v>
+      </c>
+      <c r="R41">
+        <v>0.9997863091525938</v>
+      </c>
+      <c r="S41">
+        <v>0.9997863091525938</v>
+      </c>
+      <c r="T41">
+        <v>0.9999739109365912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.015641847597828</v>
+      </c>
+      <c r="D42">
+        <v>0.9356338730126414</v>
+      </c>
+      <c r="E42">
+        <v>0.9356338730126414</v>
+      </c>
+      <c r="F42">
+        <v>1.016900961973679</v>
+      </c>
+      <c r="G42">
+        <v>1.016900961973679</v>
+      </c>
+      <c r="H42">
+        <v>0.9648900250013236</v>
+      </c>
+      <c r="I42">
+        <v>1.041471762114669</v>
+      </c>
+      <c r="J42">
+        <v>1.016008936840889</v>
+      </c>
+      <c r="K42">
+        <v>1.016900961973679</v>
+      </c>
+      <c r="L42">
+        <v>1.015641847597828</v>
+      </c>
+      <c r="M42">
+        <v>0.9756378603052349</v>
+      </c>
+      <c r="N42">
+        <v>0.9756378603052349</v>
+      </c>
+      <c r="O42">
+        <v>0.9720552485372645</v>
+      </c>
+      <c r="P42">
+        <v>0.9893922275280497</v>
+      </c>
+      <c r="Q42">
+        <v>0.9893922275280497</v>
+      </c>
+      <c r="R42">
+        <v>0.996269411139457</v>
+      </c>
+      <c r="S42">
+        <v>0.996269411139457</v>
+      </c>
+      <c r="T42">
+        <v>0.9984245677568383</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001233428946683</v>
+        <v>1.000189112210875</v>
       </c>
       <c r="D3">
-        <v>0.9956122678745017</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="E3">
-        <v>1.0010211017119</v>
+        <v>0.999307628939036</v>
       </c>
       <c r="F3">
-        <v>1.001233428946683</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="G3">
-        <v>1.002682495000115</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="H3">
-        <v>0.9976358842344779</v>
+        <v>0.999608813426451</v>
       </c>
       <c r="I3">
-        <v>1.001083005391878</v>
+        <v>1.000512842322725</v>
       </c>
       <c r="J3">
-        <v>0.9956122678745017</v>
+        <v>1.000176035488181</v>
       </c>
       <c r="K3">
-        <v>1.001233428946683</v>
+        <v>1.000144257750378</v>
       </c>
       <c r="L3">
-        <v>1.0010211017119</v>
+        <v>1.000189112210875</v>
       </c>
       <c r="M3">
-        <v>0.9983166847932006</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="N3">
-        <v>0.9983166847932006</v>
+        <v>0.9997483705749552</v>
       </c>
       <c r="O3">
-        <v>0.9980897512736263</v>
+        <v>0.9997018515254538</v>
       </c>
       <c r="P3">
-        <v>0.9992889328443613</v>
+        <v>0.999880332966763</v>
       </c>
       <c r="Q3">
-        <v>0.9992889328443613</v>
+        <v>0.999880332966763</v>
       </c>
       <c r="R3">
-        <v>0.9997750568699416</v>
+        <v>0.9999463141626668</v>
       </c>
       <c r="S3">
-        <v>0.9997750568699416</v>
+        <v>0.9999463141626668</v>
       </c>
       <c r="T3">
-        <v>0.9998780305265923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999897816896076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002373509840055</v>
+        <v>1.003048857404927</v>
       </c>
       <c r="D4">
-        <v>0.991534220025623</v>
+        <v>0.9855482365074917</v>
       </c>
       <c r="E4">
-        <v>1.001973631875799</v>
+        <v>0.9855482365074917</v>
       </c>
       <c r="F4">
-        <v>1.002373509840055</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="G4">
-        <v>1.005186849739861</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="H4">
-        <v>0.9954363615445415</v>
+        <v>0.9924170532380969</v>
       </c>
       <c r="I4">
-        <v>1.002090214711779</v>
+        <v>1.007829445302836</v>
       </c>
       <c r="J4">
-        <v>0.991534220025623</v>
+        <v>1.003509333914165</v>
       </c>
       <c r="K4">
-        <v>1.002373509840055</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="L4">
-        <v>1.001973631875799</v>
+        <v>1.003048857404927</v>
       </c>
       <c r="M4">
-        <v>0.9967539259507108</v>
+        <v>0.9942985469562093</v>
       </c>
       <c r="N4">
-        <v>0.9967539259507108</v>
+        <v>0.9942985469562093</v>
       </c>
       <c r="O4">
-        <v>0.9963147378153211</v>
+        <v>0.9936713823835053</v>
       </c>
       <c r="P4">
-        <v>0.9986271205804922</v>
+        <v>0.99774179455123</v>
       </c>
       <c r="Q4">
-        <v>0.9986271205804922</v>
+        <v>0.99774179455123</v>
       </c>
       <c r="R4">
-        <v>0.9995637178953829</v>
+        <v>0.9994634183487403</v>
       </c>
       <c r="S4">
-        <v>0.9995637178953829</v>
+        <v>0.9994634183487403</v>
       </c>
       <c r="T4">
-        <v>0.9997657979562765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994968693514646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00453604504173</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="D5">
-        <v>0.9837840647070265</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="E5">
-        <v>1.003786174389874</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="F5">
-        <v>1.00453604504173</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="G5">
-        <v>1.009953628544868</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="H5">
-        <v>0.9912547716249811</v>
+        <v>0.9753798391354477</v>
       </c>
       <c r="I5">
-        <v>1.004004792892524</v>
+        <v>1.031567446145534</v>
       </c>
       <c r="J5">
-        <v>0.9837840647070265</v>
+        <v>1.011111781844382</v>
       </c>
       <c r="K5">
-        <v>1.00453604504173</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="L5">
-        <v>1.003786174389874</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="M5">
-        <v>0.9937851195484502</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="N5">
-        <v>0.9937851195484502</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="O5">
-        <v>0.9929416702406272</v>
+        <v>0.9810508229803068</v>
       </c>
       <c r="P5">
-        <v>0.9973687613795436</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="Q5">
-        <v>0.9973687613795436</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="R5">
-        <v>0.9991605822950902</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="S5">
-        <v>0.9991605822950902</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="T5">
-        <v>0.9995532462001672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9992544068587899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006643574690273</v>
+        <v>1.039938905885167</v>
       </c>
       <c r="D6">
-        <v>0.9762221508534852</v>
+        <v>0.853964538299646</v>
       </c>
       <c r="E6">
-        <v>1.005556065579625</v>
+        <v>0.853964538299646</v>
       </c>
       <c r="F6">
-        <v>1.006643574690273</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="G6">
-        <v>1.014609031004232</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="H6">
-        <v>0.9871738633053729</v>
+        <v>0.9174578266320872</v>
       </c>
       <c r="I6">
-        <v>1.00587312627509</v>
+        <v>1.108333108180747</v>
       </c>
       <c r="J6">
-        <v>0.9762221508534852</v>
+        <v>1.03713888439432</v>
       </c>
       <c r="K6">
-        <v>1.006643574690273</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="L6">
-        <v>1.005556065579625</v>
+        <v>1.039938905885167</v>
       </c>
       <c r="M6">
-        <v>0.9908891082165553</v>
+        <v>0.9469517220924066</v>
       </c>
       <c r="N6">
-        <v>0.9908891082165553</v>
+        <v>0.9469517220924066</v>
       </c>
       <c r="O6">
-        <v>0.9896506932461612</v>
+        <v>0.9371204236056334</v>
       </c>
       <c r="P6">
-        <v>0.996140597041128</v>
+        <v>0.9747460801556537</v>
       </c>
       <c r="Q6">
-        <v>0.996140597041128</v>
+        <v>0.9747460801556537</v>
       </c>
       <c r="R6">
-        <v>0.9987663414534143</v>
+        <v>0.9886432591872771</v>
       </c>
       <c r="S6">
-        <v>0.9987663414534143</v>
+        <v>0.9886432591872771</v>
       </c>
       <c r="T6">
-        <v>0.9993463019513465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9978613432790192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000058679560107</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="D7">
-        <v>0.9997185446232343</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="E7">
-        <v>1.00007685456448</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="F7">
-        <v>1.000058679560107</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="G7">
-        <v>1.000208408513015</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="H7">
-        <v>0.9998409913550216</v>
+        <v>0.9974126811093089</v>
       </c>
       <c r="I7">
-        <v>1.000071556521662</v>
+        <v>1.002947523430272</v>
       </c>
       <c r="J7">
-        <v>0.9997185446232343</v>
+        <v>1.001184715321338</v>
       </c>
       <c r="K7">
-        <v>1.000058679560107</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="L7">
-        <v>1.00007685456448</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="M7">
-        <v>0.9998976995938573</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="N7">
-        <v>0.9998976995938573</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="O7">
-        <v>0.9998787968475787</v>
+        <v>0.9979124585903989</v>
       </c>
       <c r="P7">
-        <v>0.9999513595826072</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="Q7">
-        <v>0.9999513595826072</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="R7">
-        <v>0.9999781895769821</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="S7">
-        <v>0.9999781895769821</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="T7">
-        <v>0.9999958391895866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9998682146632306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000144257750378</v>
+        <v>1.000111383537085</v>
       </c>
       <c r="D8">
-        <v>0.9993076289390362</v>
+        <v>0.9996592626853948</v>
       </c>
       <c r="E8">
-        <v>1.000189112210875</v>
+        <v>0.9996592626853948</v>
       </c>
       <c r="F8">
-        <v>1.000144257750378</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="G8">
-        <v>1.000512842322725</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="H8">
-        <v>0.999608813426451</v>
+        <v>0.9997956157987048</v>
       </c>
       <c r="I8">
-        <v>1.000176035488181</v>
+        <v>1.000310994615597</v>
       </c>
       <c r="J8">
-        <v>0.9993076289390362</v>
+        <v>1.000089996663414</v>
       </c>
       <c r="K8">
-        <v>1.000144257750378</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="L8">
-        <v>1.000189112210875</v>
+        <v>1.000111383537085</v>
       </c>
       <c r="M8">
-        <v>0.9997483705749555</v>
+        <v>0.9998853231112401</v>
       </c>
       <c r="N8">
-        <v>0.9997483705749555</v>
+        <v>0.9998853231112401</v>
       </c>
       <c r="O8">
-        <v>0.999701851525454</v>
+        <v>0.9998554206737283</v>
       </c>
       <c r="P8">
-        <v>0.999880332966763</v>
+        <v>0.9999362239390476</v>
       </c>
       <c r="Q8">
-        <v>0.999880332966763</v>
+        <v>0.9999362239390476</v>
       </c>
       <c r="R8">
-        <v>0.9999463141626668</v>
+        <v>0.9999616743529512</v>
       </c>
       <c r="S8">
-        <v>0.9999463141626668</v>
+        <v>0.9999616743529512</v>
       </c>
       <c r="T8">
-        <v>0.9999897816896076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.00000087981581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000193869221197</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="D9">
-        <v>0.9990721756550945</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="E9">
-        <v>1.000253115284029</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="F9">
-        <v>1.000193869221197</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="G9">
-        <v>1.000686259985648</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="H9">
-        <v>0.9994759836760613</v>
+        <v>0.9954363615445415</v>
       </c>
       <c r="I9">
-        <v>1.000235842973962</v>
+        <v>1.005186849739861</v>
       </c>
       <c r="J9">
-        <v>0.9990721756550945</v>
+        <v>1.002090214711779</v>
       </c>
       <c r="K9">
-        <v>1.000193869221197</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="L9">
-        <v>1.000253115284029</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="M9">
-        <v>0.9996626454695616</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="N9">
-        <v>0.9996626454695616</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="O9">
-        <v>0.9996004248717282</v>
+        <v>0.9963147378153211</v>
       </c>
       <c r="P9">
-        <v>0.9998397200534401</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="Q9">
-        <v>0.9998397200534401</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="R9">
-        <v>0.9999282573453794</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="S9">
-        <v>0.9999282573453794</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="T9">
-        <v>0.9999862077993319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9997657979562765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0004267185942</v>
+        <v>1.040571108639365</v>
       </c>
       <c r="D10">
-        <v>0.9979607231208689</v>
+        <v>0.8518634043552096</v>
       </c>
       <c r="E10">
-        <v>1.000555985571785</v>
+        <v>0.8518634043552096</v>
       </c>
       <c r="F10">
-        <v>1.0004267185942</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="G10">
-        <v>1.001507250637443</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="H10">
-        <v>0.9988484803497838</v>
+        <v>0.9162329190999287</v>
       </c>
       <c r="I10">
-        <v>1.000518298890332</v>
+        <v>1.110076005708561</v>
       </c>
       <c r="J10">
-        <v>0.9979607231208689</v>
+        <v>1.037683806730965</v>
       </c>
       <c r="K10">
-        <v>1.0004267185942</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="L10">
-        <v>1.000555985571785</v>
+        <v>1.040571108639365</v>
       </c>
       <c r="M10">
-        <v>0.999258354346327</v>
+        <v>0.9462172564972875</v>
       </c>
       <c r="N10">
-        <v>0.999258354346327</v>
+        <v>0.9462172564972875</v>
       </c>
       <c r="O10">
-        <v>0.9991217296808127</v>
+        <v>0.9362224773648345</v>
       </c>
       <c r="P10">
-        <v>0.9996478090956179</v>
+        <v>0.9743673792697147</v>
       </c>
       <c r="Q10">
-        <v>0.9996478090956179</v>
+        <v>0.9743673792697147</v>
       </c>
       <c r="R10">
-        <v>0.9998425364702633</v>
+        <v>0.9884424406559283</v>
       </c>
       <c r="S10">
-        <v>0.9998425364702633</v>
+        <v>0.9884424406559283</v>
       </c>
       <c r="T10">
-        <v>0.9999695761940686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9978491448914332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000690721479922</v>
+        <v>1.005971839621898</v>
       </c>
       <c r="D11">
-        <v>0.9967124422259779</v>
+        <v>0.9743843811174391</v>
       </c>
       <c r="E11">
-        <v>1.000894761317132</v>
+        <v>0.9743843811174391</v>
       </c>
       <c r="F11">
-        <v>1.000690721479922</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="G11">
-        <v>1.00242489509959</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="H11">
-        <v>0.9981446211295919</v>
+        <v>0.9861913852758395</v>
       </c>
       <c r="I11">
-        <v>1.00083527652074</v>
+        <v>1.015694473929266</v>
       </c>
       <c r="J11">
-        <v>0.9967124422259779</v>
+        <v>1.006324545474754</v>
       </c>
       <c r="K11">
-        <v>1.000690721479922</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="L11">
-        <v>1.000894761317132</v>
+        <v>1.005971839621898</v>
       </c>
       <c r="M11">
-        <v>0.9988036017715549</v>
+        <v>0.9901781103696684</v>
       </c>
       <c r="N11">
-        <v>0.9988036017715549</v>
+        <v>0.9901781103696684</v>
       </c>
       <c r="O11">
-        <v>0.9985839415575674</v>
+        <v>0.9888492020050587</v>
       </c>
       <c r="P11">
-        <v>0.9994326416743441</v>
+        <v>0.9958459466126722</v>
       </c>
       <c r="Q11">
-        <v>0.9994326416743441</v>
+        <v>0.9958459466126722</v>
       </c>
       <c r="R11">
-        <v>0.9997471616257387</v>
+        <v>0.998679864734174</v>
       </c>
       <c r="S11">
-        <v>0.9997471616257387</v>
+        <v>0.998679864734174</v>
       </c>
       <c r="T11">
-        <v>0.9999504529621591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9992913740863129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9961681657979153</v>
+        <v>1.01230290073684</v>
       </c>
       <c r="D12">
-        <v>1.02812430450951</v>
+        <v>0.9551589069578952</v>
       </c>
       <c r="E12">
-        <v>0.9911915687538168</v>
+        <v>0.9551589069578952</v>
       </c>
       <c r="F12">
-        <v>0.9961681657979153</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="G12">
-        <v>0.9755629199462998</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="H12">
-        <v>1.016620090270093</v>
+        <v>0.974629374421053</v>
       </c>
       <c r="I12">
-        <v>0.9926424716027454</v>
+        <v>1.033390469684211</v>
       </c>
       <c r="J12">
-        <v>1.02812430450951</v>
+        <v>1.011410962242109</v>
       </c>
       <c r="K12">
-        <v>0.9961681657979153</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="L12">
-        <v>0.9911915687538168</v>
+        <v>1.01230290073684</v>
       </c>
       <c r="M12">
-        <v>1.009657936631663</v>
+        <v>0.9837309038473676</v>
       </c>
       <c r="N12">
-        <v>1.009657936631663</v>
+        <v>0.9837309038473676</v>
       </c>
       <c r="O12">
-        <v>1.01197865451114</v>
+        <v>0.9806970607052627</v>
       </c>
       <c r="P12">
-        <v>1.005161346353747</v>
+        <v>0.99223511725614</v>
       </c>
       <c r="Q12">
-        <v>1.005161346353747</v>
+        <v>0.99223511725614</v>
       </c>
       <c r="R12">
-        <v>1.002913051214789</v>
+        <v>0.9964872239605262</v>
       </c>
       <c r="S12">
-        <v>1.002913051214789</v>
+        <v>0.9964872239605262</v>
       </c>
       <c r="T12">
-        <v>1.000051586813397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9993560263526322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9964288541187124</v>
+        <v>0.9923873202062587</v>
       </c>
       <c r="D13">
-        <v>1.008842105048209</v>
+        <v>1.029847945064168</v>
       </c>
       <c r="E13">
-        <v>0.9985453766055025</v>
+        <v>1.029847945064168</v>
       </c>
       <c r="F13">
-        <v>0.9964288541187124</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="G13">
-        <v>0.9965241456152116</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="H13">
-        <v>1.00437333318519</v>
+        <v>1.016514017505284</v>
       </c>
       <c r="I13">
-        <v>0.9979283127626315</v>
+        <v>0.9796191474622779</v>
       </c>
       <c r="J13">
-        <v>1.008842105048209</v>
+        <v>0.9925103355056794</v>
       </c>
       <c r="K13">
-        <v>0.9964288541187124</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="L13">
-        <v>0.9985453766055025</v>
+        <v>0.9923873202062587</v>
       </c>
       <c r="M13">
-        <v>1.003693740826856</v>
+        <v>1.011117632635214</v>
       </c>
       <c r="N13">
-        <v>1.003693740826856</v>
+        <v>1.011117632635214</v>
       </c>
       <c r="O13">
-        <v>1.003920271612967</v>
+        <v>1.012916427591904</v>
       </c>
       <c r="P13">
-        <v>1.001272111924141</v>
+        <v>1.005014842647248</v>
       </c>
       <c r="Q13">
-        <v>1.001272111924141</v>
+        <v>1.005014842647248</v>
       </c>
       <c r="R13">
-        <v>1.000061297472784</v>
+        <v>1.001963447653265</v>
       </c>
       <c r="S13">
-        <v>1.000061297472784</v>
+        <v>1.001963447653265</v>
       </c>
       <c r="T13">
-        <v>1.00044035455591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000614671402497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9793137288942677</v>
+        <v>1.070188400000001</v>
       </c>
       <c r="D14">
-        <v>1.088476536302538</v>
+        <v>0.7442448400000002</v>
       </c>
       <c r="E14">
-        <v>0.9770848392505381</v>
+        <v>0.7442448400000002</v>
       </c>
       <c r="F14">
-        <v>0.9793137288942677</v>
+        <v>1.0526895</v>
       </c>
       <c r="G14">
-        <v>0.9384683448065861</v>
+        <v>1.0526895</v>
       </c>
       <c r="H14">
-        <v>1.049177922113154</v>
+        <v>0.8552849100000013</v>
       </c>
       <c r="I14">
-        <v>0.977734662465287</v>
+        <v>1.190502199999999</v>
       </c>
       <c r="J14">
-        <v>1.088476536302538</v>
+        <v>1.065086699999999</v>
       </c>
       <c r="K14">
-        <v>0.9793137288942677</v>
+        <v>1.0526895</v>
       </c>
       <c r="L14">
-        <v>0.9770848392505381</v>
+        <v>1.070188400000001</v>
       </c>
       <c r="M14">
-        <v>1.032780687776538</v>
+        <v>0.9072166200000005</v>
       </c>
       <c r="N14">
-        <v>1.032780687776538</v>
+        <v>0.9072166200000005</v>
       </c>
       <c r="O14">
-        <v>1.03824643255541</v>
+        <v>0.8899060500000008</v>
       </c>
       <c r="P14">
-        <v>1.014958368149115</v>
+        <v>0.9557075800000003</v>
       </c>
       <c r="Q14">
-        <v>1.014958368149115</v>
+        <v>0.9557075800000002</v>
       </c>
       <c r="R14">
-        <v>1.006047208335403</v>
+        <v>0.9799530600000002</v>
       </c>
       <c r="S14">
-        <v>1.006047208335403</v>
+        <v>0.9799530600000002</v>
       </c>
       <c r="T14">
-        <v>1.001709338972062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9963327583333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9933608914832228</v>
+        <v>0.9996812800000001</v>
       </c>
       <c r="D15">
-        <v>1.024046583820464</v>
+        <v>1.0044806</v>
       </c>
       <c r="E15">
-        <v>0.9943369408610638</v>
+        <v>1.0044806</v>
       </c>
       <c r="F15">
-        <v>0.9933608914832228</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="G15">
-        <v>0.9850844335556901</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="H15">
-        <v>1.012999733092003</v>
+        <v>1.001945</v>
       </c>
       <c r="I15">
-        <v>0.9940523900413201</v>
+        <v>0.9995775100000001</v>
       </c>
       <c r="J15">
-        <v>1.024046583820464</v>
+        <v>0.99902705</v>
       </c>
       <c r="K15">
-        <v>0.9933608914832228</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="L15">
-        <v>0.9943369408610638</v>
+        <v>0.9996812800000001</v>
       </c>
       <c r="M15">
-        <v>1.009191762340764</v>
+        <v>1.00208094</v>
       </c>
       <c r="N15">
-        <v>1.009191762340764</v>
+        <v>1.00208094</v>
       </c>
       <c r="O15">
-        <v>1.01046108592451</v>
+        <v>1.002035626666667</v>
       </c>
       <c r="P15">
-        <v>1.00391480538825</v>
+        <v>1.000533053333333</v>
       </c>
       <c r="Q15">
-        <v>1.00391480538825</v>
+        <v>1.000533053333333</v>
       </c>
       <c r="R15">
-        <v>1.001276326911993</v>
+        <v>0.9997591100000002</v>
       </c>
       <c r="S15">
-        <v>1.001276326911993</v>
+        <v>0.9997591100000002</v>
       </c>
       <c r="T15">
-        <v>1.00064682880896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.00035812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000024422960866</v>
+        <v>1.0216333</v>
       </c>
       <c r="D16">
-        <v>0.9999699858777615</v>
+        <v>0.88779747</v>
       </c>
       <c r="E16">
-        <v>0.9999981033281633</v>
+        <v>0.88779747</v>
       </c>
       <c r="F16">
-        <v>1.000024422960866</v>
+        <v>1.0396018</v>
       </c>
       <c r="G16">
-        <v>0.9999899299238119</v>
+        <v>1.0396018</v>
       </c>
       <c r="H16">
-        <v>0.9999895813975754</v>
+        <v>0.94244704</v>
       </c>
       <c r="I16">
-        <v>1.000005777465299</v>
+        <v>1.0542662</v>
       </c>
       <c r="J16">
-        <v>0.9999699858777615</v>
+        <v>1.0268719</v>
       </c>
       <c r="K16">
-        <v>1.000024422960866</v>
+        <v>1.0396018</v>
       </c>
       <c r="L16">
-        <v>0.9999981033281633</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.9999840446029624</v>
+        <v>0.954715385</v>
       </c>
       <c r="N16">
-        <v>0.9999840446029624</v>
+        <v>0.954715385</v>
       </c>
       <c r="O16">
-        <v>0.9999858902011667</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P16">
-        <v>0.9999975040555968</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999975040555968</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R16">
-        <v>1.000004233781914</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S16">
-        <v>1.000004233781914</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T16">
-        <v>0.9999963001589128</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000038025594663</v>
+        <v>0.96686335</v>
       </c>
       <c r="D17">
-        <v>0.9996592626853948</v>
+        <v>1.1345561</v>
       </c>
       <c r="E17">
-        <v>1.000111383537085</v>
+        <v>1.1345561</v>
       </c>
       <c r="F17">
-        <v>1.000038025594663</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="G17">
-        <v>1.000310994615597</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="H17">
-        <v>0.9997956157987045</v>
+        <v>1.0736803</v>
       </c>
       <c r="I17">
-        <v>1.000089996663414</v>
+        <v>0.9119035199999999</v>
       </c>
       <c r="J17">
-        <v>0.9996592626853948</v>
+        <v>0.96645325</v>
       </c>
       <c r="K17">
-        <v>1.000038025594663</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="L17">
-        <v>1.000111383537085</v>
+        <v>0.96686335</v>
       </c>
       <c r="M17">
-        <v>0.9998853231112401</v>
+        <v>1.050709725</v>
       </c>
       <c r="N17">
-        <v>0.9998853231112401</v>
+        <v>1.050709725</v>
       </c>
       <c r="O17">
-        <v>0.9998554206737283</v>
+        <v>1.058366583333333</v>
       </c>
       <c r="P17">
-        <v>0.9999362239390477</v>
+        <v>1.022292056666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999362239390477</v>
+        <v>1.022292056666667</v>
       </c>
       <c r="R17">
-        <v>0.9999616743529514</v>
+        <v>1.0080832225</v>
       </c>
       <c r="S17">
-        <v>0.9999616743529514</v>
+        <v>1.0080832225</v>
       </c>
       <c r="T17">
-        <v>1.00000087981581</v>
+        <v>1.003152206666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000465965022148</v>
+        <v>1.023104871780822</v>
       </c>
       <c r="D18">
-        <v>0.998596007609981</v>
+        <v>0.8999194030136988</v>
       </c>
       <c r="E18">
-        <v>1.00028712889534</v>
+        <v>0.8999194030136988</v>
       </c>
       <c r="F18">
-        <v>1.000465965022148</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="G18">
-        <v>1.00073160892113</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="H18">
-        <v>0.9992691903481919</v>
+        <v>0.9461967676712326</v>
       </c>
       <c r="I18">
-        <v>1.000339268467195</v>
+        <v>1.060591530547945</v>
       </c>
       <c r="J18">
-        <v>0.998596007609981</v>
+        <v>1.024668369178082</v>
       </c>
       <c r="K18">
-        <v>1.000465965022148</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="L18">
-        <v>1.00028712889534</v>
+        <v>1.023104871780822</v>
       </c>
       <c r="M18">
-        <v>0.9994415682526603</v>
+        <v>0.9615121373972606</v>
       </c>
       <c r="N18">
-        <v>0.9994415682526603</v>
+        <v>0.9615121373972606</v>
       </c>
       <c r="O18">
-        <v>0.9993841089511708</v>
+        <v>0.9564070141552513</v>
       </c>
       <c r="P18">
-        <v>0.9997830338424895</v>
+        <v>0.9838306362557079</v>
       </c>
       <c r="Q18">
-        <v>0.9997830338424896</v>
+        <v>0.9838306362557079</v>
       </c>
       <c r="R18">
-        <v>0.9999537666374041</v>
+        <v>0.9949898856849315</v>
       </c>
       <c r="S18">
-        <v>0.9999537666374041</v>
+        <v>0.9949898856849315</v>
       </c>
       <c r="T18">
-        <v>0.999948194877331</v>
+        <v>0.9971580960273974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001310310831088</v>
+        <v>1.001951975263158</v>
       </c>
       <c r="D19">
-        <v>0.9965762904395246</v>
+        <v>0.9912253752631578</v>
       </c>
       <c r="E19">
-        <v>1.00060349543936</v>
+        <v>0.9912253752631578</v>
       </c>
       <c r="F19">
-        <v>1.001310310831088</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="G19">
-        <v>1.00147468358275</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="H19">
-        <v>0.9982805275650131</v>
+        <v>0.9953305584210527</v>
       </c>
       <c r="I19">
-        <v>1.000809563313386</v>
+        <v>1.005076374736842</v>
       </c>
       <c r="J19">
-        <v>0.9965762904395246</v>
+        <v>1.002149272631579</v>
       </c>
       <c r="K19">
-        <v>1.001310310831088</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="L19">
-        <v>1.00060349543936</v>
+        <v>1.001951975263158</v>
       </c>
       <c r="M19">
-        <v>0.9985898929394424</v>
+        <v>0.9965886752631579</v>
       </c>
       <c r="N19">
-        <v>0.9985898929394424</v>
+        <v>0.9965886752631579</v>
       </c>
       <c r="O19">
-        <v>0.998486771147966</v>
+        <v>0.9961693029824561</v>
       </c>
       <c r="P19">
-        <v>0.9994966989033243</v>
+        <v>0.9986020103508771</v>
       </c>
       <c r="Q19">
-        <v>0.9994966989033243</v>
+        <v>0.9986020103508771</v>
       </c>
       <c r="R19">
-        <v>0.9999501018852652</v>
+        <v>0.9996086778947368</v>
       </c>
       <c r="S19">
-        <v>0.9999501018852652</v>
+        <v>0.9996086778947368</v>
       </c>
       <c r="T19">
-        <v>0.9998424785285204</v>
+        <v>0.9997270394736842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.012336001052632</v>
+      </c>
+      <c r="D20">
+        <v>0.9589977078947367</v>
+      </c>
+      <c r="E20">
+        <v>0.9589977078947367</v>
+      </c>
+      <c r="F20">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="G20">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="H20">
+        <v>0.976097375263158</v>
+      </c>
+      <c r="I20">
+        <v>1.03400821631579</v>
+      </c>
+      <c r="J20">
+        <v>1.010633609473684</v>
+      </c>
+      <c r="K20">
+        <v>1.006496822105263</v>
+      </c>
+      <c r="L20">
+        <v>1.012336001052632</v>
+      </c>
+      <c r="M20">
+        <v>0.9856668544736842</v>
+      </c>
+      <c r="N20">
+        <v>0.9856668544736842</v>
+      </c>
+      <c r="O20">
+        <v>0.9824770280701755</v>
+      </c>
+      <c r="P20">
+        <v>0.9926101770175438</v>
+      </c>
+      <c r="Q20">
+        <v>0.9926101770175438</v>
+      </c>
+      <c r="R20">
+        <v>0.9960818382894737</v>
+      </c>
+      <c r="S20">
+        <v>0.9960818382894737</v>
+      </c>
+      <c r="T20">
+        <v>0.9997616220175439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9770848392505382</v>
+      </c>
+      <c r="D21">
+        <v>1.088476536302538</v>
+      </c>
+      <c r="E21">
+        <v>1.088476536302538</v>
+      </c>
+      <c r="F21">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="G21">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="H21">
+        <v>1.049177922113154</v>
+      </c>
+      <c r="I21">
+        <v>0.9384683448065863</v>
+      </c>
+      <c r="J21">
+        <v>0.977734662465287</v>
+      </c>
+      <c r="K21">
+        <v>0.9793137288942677</v>
+      </c>
+      <c r="L21">
+        <v>0.9770848392505382</v>
+      </c>
+      <c r="M21">
+        <v>1.032780687776538</v>
+      </c>
+      <c r="N21">
+        <v>1.032780687776538</v>
+      </c>
+      <c r="O21">
+        <v>1.03824643255541</v>
+      </c>
+      <c r="P21">
+        <v>1.014958368149115</v>
+      </c>
+      <c r="Q21">
+        <v>1.014958368149115</v>
+      </c>
+      <c r="R21">
+        <v>1.006047208335403</v>
+      </c>
+      <c r="S21">
+        <v>1.006047208335403</v>
+      </c>
+      <c r="T21">
+        <v>1.001709338972062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9943369408610638</v>
+      </c>
+      <c r="D22">
+        <v>1.024046583820464</v>
+      </c>
+      <c r="E22">
+        <v>1.024046583820464</v>
+      </c>
+      <c r="F22">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="G22">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="H22">
+        <v>1.012999733092003</v>
+      </c>
+      <c r="I22">
+        <v>0.9850844335556901</v>
+      </c>
+      <c r="J22">
+        <v>0.9940523900413201</v>
+      </c>
+      <c r="K22">
+        <v>0.9933608914832228</v>
+      </c>
+      <c r="L22">
+        <v>0.9943369408610638</v>
+      </c>
+      <c r="M22">
+        <v>1.009191762340764</v>
+      </c>
+      <c r="N22">
+        <v>1.009191762340764</v>
+      </c>
+      <c r="O22">
+        <v>1.01046108592451</v>
+      </c>
+      <c r="P22">
+        <v>1.00391480538825</v>
+      </c>
+      <c r="Q22">
+        <v>1.00391480538825</v>
+      </c>
+      <c r="R22">
+        <v>1.001276326911993</v>
+      </c>
+      <c r="S22">
+        <v>1.001276326911993</v>
+      </c>
+      <c r="T22">
+        <v>1.00064682880896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9911915687538168</v>
+      </c>
+      <c r="D23">
+        <v>1.02812430450951</v>
+      </c>
+      <c r="E23">
+        <v>1.02812430450951</v>
+      </c>
+      <c r="F23">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="G23">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="H23">
+        <v>1.016620090270093</v>
+      </c>
+      <c r="I23">
+        <v>0.9755629199462998</v>
+      </c>
+      <c r="J23">
+        <v>0.9926424716027454</v>
+      </c>
+      <c r="K23">
+        <v>0.9961681657979153</v>
+      </c>
+      <c r="L23">
+        <v>0.9911915687538168</v>
+      </c>
+      <c r="M23">
+        <v>1.009657936631663</v>
+      </c>
+      <c r="N23">
+        <v>1.009657936631663</v>
+      </c>
+      <c r="O23">
+        <v>1.01197865451114</v>
+      </c>
+      <c r="P23">
+        <v>1.005161346353747</v>
+      </c>
+      <c r="Q23">
+        <v>1.005161346353747</v>
+      </c>
+      <c r="R23">
+        <v>1.002913051214789</v>
+      </c>
+      <c r="S23">
+        <v>1.002913051214789</v>
+      </c>
+      <c r="T23">
+        <v>1.000051586813397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9985453766055026</v>
+      </c>
+      <c r="D24">
+        <v>1.008842105048209</v>
+      </c>
+      <c r="E24">
+        <v>1.008842105048209</v>
+      </c>
+      <c r="F24">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="G24">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="H24">
+        <v>1.00437333318519</v>
+      </c>
+      <c r="I24">
+        <v>0.9965241456152116</v>
+      </c>
+      <c r="J24">
+        <v>0.9979283127626314</v>
+      </c>
+      <c r="K24">
+        <v>0.9964288541187124</v>
+      </c>
+      <c r="L24">
+        <v>0.9985453766055026</v>
+      </c>
+      <c r="M24">
+        <v>1.003693740826856</v>
+      </c>
+      <c r="N24">
+        <v>1.003693740826856</v>
+      </c>
+      <c r="O24">
+        <v>1.003920271612967</v>
+      </c>
+      <c r="P24">
+        <v>1.001272111924141</v>
+      </c>
+      <c r="Q24">
+        <v>1.001272111924141</v>
+      </c>
+      <c r="R24">
+        <v>1.000061297472784</v>
+      </c>
+      <c r="S24">
+        <v>1.000061297472784</v>
+      </c>
+      <c r="T24">
+        <v>1.00044035455591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002064574595686</v>
+      </c>
+      <c r="D25">
+        <v>0.9860790581041075</v>
+      </c>
+      <c r="E25">
+        <v>0.9860790581041075</v>
+      </c>
+      <c r="F25">
+        <v>1.006028438833737</v>
+      </c>
+      <c r="G25">
+        <v>1.006028438833737</v>
+      </c>
+      <c r="H25">
+        <v>0.9932608285504012</v>
+      </c>
+      <c r="I25">
+        <v>1.004750487020169</v>
+      </c>
+      <c r="J25">
+        <v>1.003220209955117</v>
+      </c>
+      <c r="K25">
+        <v>1.006028438833737</v>
+      </c>
+      <c r="L25">
+        <v>1.002064574595686</v>
+      </c>
+      <c r="M25">
+        <v>0.9940718163498968</v>
+      </c>
+      <c r="N25">
+        <v>0.9940718163498968</v>
+      </c>
+      <c r="O25">
+        <v>0.9938014870833983</v>
+      </c>
+      <c r="P25">
+        <v>0.9980573571778435</v>
+      </c>
+      <c r="Q25">
+        <v>0.9980573571778435</v>
+      </c>
+      <c r="R25">
+        <v>1.000050127591817</v>
+      </c>
+      <c r="S25">
+        <v>1.000050127591817</v>
+      </c>
+      <c r="T25">
+        <v>0.9992339328432029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001298496200779</v>
+      </c>
+      <c r="D26">
+        <v>0.9972136002251396</v>
+      </c>
+      <c r="E26">
+        <v>0.9972136002251396</v>
+      </c>
+      <c r="F26">
+        <v>0.9996131792223932</v>
+      </c>
+      <c r="G26">
+        <v>0.9996131792223932</v>
+      </c>
+      <c r="H26">
+        <v>0.998077445246348</v>
+      </c>
+      <c r="I26">
+        <v>1.003783675496477</v>
+      </c>
+      <c r="J26">
+        <v>1.000807150670082</v>
+      </c>
+      <c r="K26">
+        <v>0.9996131792223932</v>
+      </c>
+      <c r="L26">
+        <v>1.001298496200779</v>
+      </c>
+      <c r="M26">
+        <v>0.9992560482129593</v>
+      </c>
+      <c r="N26">
+        <v>0.9992560482129593</v>
+      </c>
+      <c r="O26">
+        <v>0.9988631805574223</v>
+      </c>
+      <c r="P26">
+        <v>0.9993750918827707</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993750918827707</v>
+      </c>
+      <c r="R26">
+        <v>0.9994346137176764</v>
+      </c>
+      <c r="S26">
+        <v>0.9994346137176764</v>
+      </c>
+      <c r="T26">
+        <v>1.000132257843537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003836844868689</v>
+      </c>
+      <c r="D27">
+        <v>0.9840829099406317</v>
+      </c>
+      <c r="E27">
+        <v>0.9840829099406317</v>
+      </c>
+      <c r="F27">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="G27">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="H27">
+        <v>0.9913378830152971</v>
+      </c>
+      <c r="I27">
+        <v>1.01015563260021</v>
+      </c>
+      <c r="J27">
+        <v>1.00395312323772</v>
+      </c>
+      <c r="K27">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="L27">
+        <v>1.003836844868689</v>
+      </c>
+      <c r="M27">
+        <v>0.9939598774046605</v>
+      </c>
+      <c r="N27">
+        <v>0.9939598774046605</v>
+      </c>
+      <c r="O27">
+        <v>0.9930858792748727</v>
+      </c>
+      <c r="P27">
+        <v>0.9973851363659708</v>
+      </c>
+      <c r="Q27">
+        <v>0.9973851363659708</v>
+      </c>
+      <c r="R27">
+        <v>0.9990977658466259</v>
+      </c>
+      <c r="S27">
+        <v>0.9990977658466259</v>
+      </c>
+      <c r="T27">
+        <v>0.9996003413251898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.998456074134901</v>
+      </c>
+      <c r="D28">
+        <v>1.003437023335902</v>
+      </c>
+      <c r="E28">
+        <v>1.003437023335902</v>
+      </c>
+      <c r="F28">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="G28">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="H28">
+        <v>1.002334024907776</v>
+      </c>
+      <c r="I28">
+        <v>0.9955176852829054</v>
+      </c>
+      <c r="J28">
+        <v>0.9990149871727638</v>
+      </c>
+      <c r="K28">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="L28">
+        <v>0.998456074134901</v>
+      </c>
+      <c r="M28">
+        <v>1.000946548735401</v>
+      </c>
+      <c r="N28">
+        <v>1.000946548735401</v>
+      </c>
+      <c r="O28">
+        <v>1.00140904079286</v>
+      </c>
+      <c r="P28">
+        <v>1.000755421750003</v>
+      </c>
+      <c r="Q28">
+        <v>1.000755421750003</v>
+      </c>
+      <c r="R28">
+        <v>1.000659858257303</v>
+      </c>
+      <c r="S28">
+        <v>1.000659858257303</v>
+      </c>
+      <c r="T28">
+        <v>0.9998554937689089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9860626908398845</v>
+      </c>
+      <c r="D29">
+        <v>1.051316139096158</v>
+      </c>
+      <c r="E29">
+        <v>1.051316139096158</v>
+      </c>
+      <c r="F29">
+        <v>0.9891658925260086</v>
+      </c>
+      <c r="G29">
+        <v>0.9891658925260086</v>
+      </c>
+      <c r="H29">
+        <v>1.028942038386208</v>
+      </c>
+      <c r="I29">
+        <v>0.9622427378469851</v>
+      </c>
+      <c r="J29">
+        <v>0.9869673984973013</v>
+      </c>
+      <c r="K29">
+        <v>0.9891658925260086</v>
+      </c>
+      <c r="L29">
+        <v>0.9860626908398845</v>
+      </c>
+      <c r="M29">
+        <v>1.018689414968021</v>
+      </c>
+      <c r="N29">
+        <v>1.018689414968021</v>
+      </c>
+      <c r="O29">
+        <v>1.022106956107417</v>
+      </c>
+      <c r="P29">
+        <v>1.008848240820684</v>
+      </c>
+      <c r="Q29">
+        <v>1.008848240820684</v>
+      </c>
+      <c r="R29">
+        <v>1.003927653747015</v>
+      </c>
+      <c r="S29">
+        <v>1.003927653747015</v>
+      </c>
+      <c r="T29">
+        <v>1.000782816198758</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003048857404927</v>
+        <v>1.009944683969625</v>
       </c>
       <c r="D4">
-        <v>0.9855482365074917</v>
+        <v>0.9626935677732623</v>
       </c>
       <c r="E4">
-        <v>0.9855482365074917</v>
+        <v>0.9626935677732623</v>
       </c>
       <c r="F4">
-        <v>1.004628289741271</v>
+        <v>1.008214070528183</v>
       </c>
       <c r="G4">
-        <v>1.004628289741271</v>
+        <v>1.008214070528183</v>
       </c>
       <c r="H4">
-        <v>0.9924170532380969</v>
+        <v>0.9790809472675113</v>
       </c>
       <c r="I4">
-        <v>1.007829445302836</v>
+        <v>1.026848798522866</v>
       </c>
       <c r="J4">
-        <v>1.003509333914165</v>
+        <v>1.009440133450815</v>
       </c>
       <c r="K4">
-        <v>1.004628289741271</v>
+        <v>1.008214070528183</v>
       </c>
       <c r="L4">
-        <v>1.003048857404927</v>
+        <v>1.009944683969625</v>
       </c>
       <c r="M4">
-        <v>0.9942985469562093</v>
+        <v>0.9863191258714437</v>
       </c>
       <c r="N4">
-        <v>0.9942985469562093</v>
+        <v>0.9863191258714437</v>
       </c>
       <c r="O4">
-        <v>0.9936713823835053</v>
+        <v>0.9839063996701328</v>
       </c>
       <c r="P4">
-        <v>0.99774179455123</v>
+        <v>0.9936174407570236</v>
       </c>
       <c r="Q4">
-        <v>0.99774179455123</v>
+        <v>0.9936174407570236</v>
       </c>
       <c r="R4">
-        <v>0.9994634183487403</v>
+        <v>0.9972665981998134</v>
       </c>
       <c r="S4">
-        <v>0.9994634183487403</v>
+        <v>0.9972665981998134</v>
       </c>
       <c r="T4">
-        <v>0.9994968693514646</v>
+        <v>0.9993703669187104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011694922046106</v>
+        <v>1.008028973744419</v>
       </c>
       <c r="D5">
-        <v>0.956077707759367</v>
+        <v>0.9750875645369539</v>
       </c>
       <c r="E5">
-        <v>0.956077707759367</v>
+        <v>0.9750875645369539</v>
       </c>
       <c r="F5">
-        <v>1.009694744221904</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="G5">
-        <v>1.009694744221904</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="H5">
-        <v>0.9753798391354477</v>
+        <v>0.9851311923818167</v>
       </c>
       <c r="I5">
-        <v>1.031567446145534</v>
+        <v>1.022371042200191</v>
       </c>
       <c r="J5">
-        <v>1.011111781844382</v>
+        <v>1.006558877944901</v>
       </c>
       <c r="K5">
-        <v>1.009694744221904</v>
+        <v>1.00298657081455</v>
       </c>
       <c r="L5">
-        <v>1.011694922046106</v>
+        <v>1.008028973744419</v>
       </c>
       <c r="M5">
-        <v>0.9838863149027363</v>
+        <v>0.9915582691406866</v>
       </c>
       <c r="N5">
-        <v>0.9838863149027363</v>
+        <v>0.9915582691406866</v>
       </c>
       <c r="O5">
-        <v>0.9810508229803068</v>
+        <v>0.9894159102210632</v>
       </c>
       <c r="P5">
-        <v>0.992489124675792</v>
+        <v>0.9953677030319743</v>
       </c>
       <c r="Q5">
-        <v>0.992489124675792</v>
+        <v>0.9953677030319743</v>
       </c>
       <c r="R5">
-        <v>0.9967905295623199</v>
+        <v>0.9972724199776182</v>
       </c>
       <c r="S5">
-        <v>0.9967905295623199</v>
+        <v>0.9972724199776182</v>
       </c>
       <c r="T5">
-        <v>0.9992544068587899</v>
+        <v>1.000027370270472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039938905885167</v>
+        <v>1.003048857404927</v>
       </c>
       <c r="D6">
-        <v>0.853964538299646</v>
+        <v>0.9855482365074917</v>
       </c>
       <c r="E6">
-        <v>0.853964538299646</v>
+        <v>0.9855482365074917</v>
       </c>
       <c r="F6">
-        <v>1.030334796282148</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="G6">
-        <v>1.030334796282148</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="H6">
-        <v>0.9174578266320872</v>
+        <v>0.9924170532380969</v>
       </c>
       <c r="I6">
-        <v>1.108333108180747</v>
+        <v>1.007829445302836</v>
       </c>
       <c r="J6">
-        <v>1.03713888439432</v>
+        <v>1.003509333914165</v>
       </c>
       <c r="K6">
-        <v>1.030334796282148</v>
+        <v>1.004628289741271</v>
       </c>
       <c r="L6">
-        <v>1.039938905885167</v>
+        <v>1.003048857404927</v>
       </c>
       <c r="M6">
-        <v>0.9469517220924066</v>
+        <v>0.9942985469562093</v>
       </c>
       <c r="N6">
-        <v>0.9469517220924066</v>
+        <v>0.9942985469562093</v>
       </c>
       <c r="O6">
-        <v>0.9371204236056334</v>
+        <v>0.9936713823835053</v>
       </c>
       <c r="P6">
-        <v>0.9747460801556537</v>
+        <v>0.99774179455123</v>
       </c>
       <c r="Q6">
-        <v>0.9747460801556537</v>
+        <v>0.99774179455123</v>
       </c>
       <c r="R6">
-        <v>0.9886432591872771</v>
+        <v>0.9994634183487403</v>
       </c>
       <c r="S6">
-        <v>0.9886432591872771</v>
+        <v>0.9994634183487403</v>
       </c>
       <c r="T6">
-        <v>0.9978613432790192</v>
+        <v>0.9994968693514646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001120944559042</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="D7">
-        <v>0.9952037501028463</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="E7">
-        <v>0.9952037501028463</v>
+        <v>0.956077707759367</v>
       </c>
       <c r="F7">
-        <v>1.001339673456576</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="G7">
-        <v>1.001339673456576</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="H7">
-        <v>0.9974126811093089</v>
+        <v>0.9753798391354477</v>
       </c>
       <c r="I7">
-        <v>1.002947523430272</v>
+        <v>1.031567446145534</v>
       </c>
       <c r="J7">
-        <v>1.001184715321338</v>
+        <v>1.011111781844382</v>
       </c>
       <c r="K7">
-        <v>1.001339673456576</v>
+        <v>1.009694744221904</v>
       </c>
       <c r="L7">
-        <v>1.001120944559042</v>
+        <v>1.011694922046106</v>
       </c>
       <c r="M7">
-        <v>0.998162347330944</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="N7">
-        <v>0.998162347330944</v>
+        <v>0.9838863149027363</v>
       </c>
       <c r="O7">
-        <v>0.9979124585903989</v>
+        <v>0.9810508229803068</v>
       </c>
       <c r="P7">
-        <v>0.999221456039488</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="Q7">
-        <v>0.999221456039488</v>
+        <v>0.992489124675792</v>
       </c>
       <c r="R7">
-        <v>0.9997510103937599</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="S7">
-        <v>0.9997510103937599</v>
+        <v>0.9967905295623199</v>
       </c>
       <c r="T7">
-        <v>0.9998682146632306</v>
+        <v>0.9992544068587899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000111383537085</v>
+        <v>1.039938905885167</v>
       </c>
       <c r="D8">
-        <v>0.9996592626853948</v>
+        <v>0.853964538299646</v>
       </c>
       <c r="E8">
-        <v>0.9996592626853948</v>
+        <v>0.853964538299646</v>
       </c>
       <c r="F8">
-        <v>1.000038025594662</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="G8">
-        <v>1.000038025594662</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="H8">
-        <v>0.9997956157987048</v>
+        <v>0.9174578266320872</v>
       </c>
       <c r="I8">
-        <v>1.000310994615597</v>
+        <v>1.108333108180747</v>
       </c>
       <c r="J8">
-        <v>1.000089996663414</v>
+        <v>1.03713888439432</v>
       </c>
       <c r="K8">
-        <v>1.000038025594662</v>
+        <v>1.030334796282148</v>
       </c>
       <c r="L8">
-        <v>1.000111383537085</v>
+        <v>1.039938905885167</v>
       </c>
       <c r="M8">
-        <v>0.9998853231112401</v>
+        <v>0.9469517220924066</v>
       </c>
       <c r="N8">
-        <v>0.9998853231112401</v>
+        <v>0.9469517220924066</v>
       </c>
       <c r="O8">
-        <v>0.9998554206737283</v>
+        <v>0.9371204236056334</v>
       </c>
       <c r="P8">
-        <v>0.9999362239390476</v>
+        <v>0.9747460801556537</v>
       </c>
       <c r="Q8">
-        <v>0.9999362239390476</v>
+        <v>0.9747460801556537</v>
       </c>
       <c r="R8">
-        <v>0.9999616743529512</v>
+        <v>0.9886432591872771</v>
       </c>
       <c r="S8">
-        <v>0.9999616743529512</v>
+        <v>0.9886432591872771</v>
       </c>
       <c r="T8">
-        <v>1.00000087981581</v>
+        <v>0.9978613432790192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001973631875799</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="D9">
-        <v>0.991534220025623</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="E9">
-        <v>0.991534220025623</v>
+        <v>0.9952037501028463</v>
       </c>
       <c r="F9">
-        <v>1.002373509840055</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="G9">
-        <v>1.002373509840055</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="H9">
-        <v>0.9954363615445415</v>
+        <v>0.9974126811093089</v>
       </c>
       <c r="I9">
-        <v>1.005186849739861</v>
+        <v>1.002947523430272</v>
       </c>
       <c r="J9">
-        <v>1.002090214711779</v>
+        <v>1.001184715321338</v>
       </c>
       <c r="K9">
-        <v>1.002373509840055</v>
+        <v>1.001339673456576</v>
       </c>
       <c r="L9">
-        <v>1.001973631875799</v>
+        <v>1.001120944559042</v>
       </c>
       <c r="M9">
-        <v>0.9967539259507108</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="N9">
-        <v>0.9967539259507108</v>
+        <v>0.998162347330944</v>
       </c>
       <c r="O9">
-        <v>0.9963147378153211</v>
+        <v>0.9979124585903989</v>
       </c>
       <c r="P9">
-        <v>0.9986271205804922</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="Q9">
-        <v>0.9986271205804922</v>
+        <v>0.999221456039488</v>
       </c>
       <c r="R9">
-        <v>0.9995637178953829</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="S9">
-        <v>0.9995637178953829</v>
+        <v>0.9997510103937599</v>
       </c>
       <c r="T9">
-        <v>0.9997657979562765</v>
+        <v>0.9998682146632306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.040571108639365</v>
+        <v>1.000111383537085</v>
       </c>
       <c r="D10">
-        <v>0.8518634043552096</v>
+        <v>0.9996592626853948</v>
       </c>
       <c r="E10">
-        <v>0.8518634043552096</v>
+        <v>0.9996592626853948</v>
       </c>
       <c r="F10">
-        <v>1.030667624814569</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="G10">
-        <v>1.030667624814569</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="H10">
-        <v>0.9162329190999287</v>
+        <v>0.9997956157987048</v>
       </c>
       <c r="I10">
-        <v>1.110076005708561</v>
+        <v>1.000310994615597</v>
       </c>
       <c r="J10">
-        <v>1.037683806730965</v>
+        <v>1.000089996663414</v>
       </c>
       <c r="K10">
-        <v>1.030667624814569</v>
+        <v>1.000038025594662</v>
       </c>
       <c r="L10">
-        <v>1.040571108639365</v>
+        <v>1.000111383537085</v>
       </c>
       <c r="M10">
-        <v>0.9462172564972875</v>
+        <v>0.9998853231112401</v>
       </c>
       <c r="N10">
-        <v>0.9462172564972875</v>
+        <v>0.9998853231112401</v>
       </c>
       <c r="O10">
-        <v>0.9362224773648345</v>
+        <v>0.9998554206737283</v>
       </c>
       <c r="P10">
-        <v>0.9743673792697147</v>
+        <v>0.9999362239390476</v>
       </c>
       <c r="Q10">
-        <v>0.9743673792697147</v>
+        <v>0.9999362239390476</v>
       </c>
       <c r="R10">
-        <v>0.9884424406559283</v>
+        <v>0.9999616743529512</v>
       </c>
       <c r="S10">
-        <v>0.9884424406559283</v>
+        <v>0.9999616743529512</v>
       </c>
       <c r="T10">
-        <v>0.9978491448914332</v>
+        <v>1.00000087981581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005971839621898</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="D11">
-        <v>0.9743843811174391</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="E11">
-        <v>0.9743843811174391</v>
+        <v>0.991534220025623</v>
       </c>
       <c r="F11">
-        <v>1.00718161909868</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="G11">
-        <v>1.00718161909868</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="H11">
-        <v>0.9861913852758395</v>
+        <v>0.9954363615445415</v>
       </c>
       <c r="I11">
-        <v>1.015694473929266</v>
+        <v>1.005186849739861</v>
       </c>
       <c r="J11">
-        <v>1.006324545474754</v>
+        <v>1.002090214711779</v>
       </c>
       <c r="K11">
-        <v>1.00718161909868</v>
+        <v>1.002373509840055</v>
       </c>
       <c r="L11">
-        <v>1.005971839621898</v>
+        <v>1.001973631875799</v>
       </c>
       <c r="M11">
-        <v>0.9901781103696684</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="N11">
-        <v>0.9901781103696684</v>
+        <v>0.9967539259507108</v>
       </c>
       <c r="O11">
-        <v>0.9888492020050587</v>
+        <v>0.9963147378153211</v>
       </c>
       <c r="P11">
-        <v>0.9958459466126722</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="Q11">
-        <v>0.9958459466126722</v>
+        <v>0.9986271205804922</v>
       </c>
       <c r="R11">
-        <v>0.998679864734174</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="S11">
-        <v>0.998679864734174</v>
+        <v>0.9995637178953829</v>
       </c>
       <c r="T11">
-        <v>0.9992913740863129</v>
+        <v>0.9997657979562765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.01230290073684</v>
+        <v>1.040571108639365</v>
       </c>
       <c r="D12">
-        <v>0.9551589069578952</v>
+        <v>0.8518634043552096</v>
       </c>
       <c r="E12">
-        <v>0.9551589069578952</v>
+        <v>0.8518634043552096</v>
       </c>
       <c r="F12">
-        <v>1.009243544073685</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="G12">
-        <v>1.009243544073685</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="H12">
-        <v>0.974629374421053</v>
+        <v>0.9162329190999287</v>
       </c>
       <c r="I12">
-        <v>1.033390469684211</v>
+        <v>1.110076005708561</v>
       </c>
       <c r="J12">
-        <v>1.011410962242109</v>
+        <v>1.037683806730965</v>
       </c>
       <c r="K12">
-        <v>1.009243544073685</v>
+        <v>1.030667624814569</v>
       </c>
       <c r="L12">
-        <v>1.01230290073684</v>
+        <v>1.040571108639365</v>
       </c>
       <c r="M12">
-        <v>0.9837309038473676</v>
+        <v>0.9462172564972875</v>
       </c>
       <c r="N12">
-        <v>0.9837309038473676</v>
+        <v>0.9462172564972875</v>
       </c>
       <c r="O12">
-        <v>0.9806970607052627</v>
+        <v>0.9362224773648345</v>
       </c>
       <c r="P12">
-        <v>0.99223511725614</v>
+        <v>0.9743673792697147</v>
       </c>
       <c r="Q12">
-        <v>0.99223511725614</v>
+        <v>0.9743673792697147</v>
       </c>
       <c r="R12">
-        <v>0.9964872239605262</v>
+        <v>0.9884424406559283</v>
       </c>
       <c r="S12">
-        <v>0.9964872239605262</v>
+        <v>0.9884424406559283</v>
       </c>
       <c r="T12">
-        <v>0.9993560263526322</v>
+        <v>0.9978491448914332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9923873202062587</v>
+        <v>1.005971839621898</v>
       </c>
       <c r="D13">
-        <v>1.029847945064168</v>
+        <v>0.9743843811174391</v>
       </c>
       <c r="E13">
-        <v>1.029847945064168</v>
+        <v>0.9743843811174391</v>
       </c>
       <c r="F13">
-        <v>0.9928092626713169</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="G13">
-        <v>0.9928092626713169</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="H13">
-        <v>1.016514017505284</v>
+        <v>0.9861913852758395</v>
       </c>
       <c r="I13">
-        <v>0.9796191474622779</v>
+        <v>1.015694473929266</v>
       </c>
       <c r="J13">
-        <v>0.9925103355056794</v>
+        <v>1.006324545474754</v>
       </c>
       <c r="K13">
-        <v>0.9928092626713169</v>
+        <v>1.00718161909868</v>
       </c>
       <c r="L13">
-        <v>0.9923873202062587</v>
+        <v>1.005971839621898</v>
       </c>
       <c r="M13">
-        <v>1.011117632635214</v>
+        <v>0.9901781103696684</v>
       </c>
       <c r="N13">
-        <v>1.011117632635214</v>
+        <v>0.9901781103696684</v>
       </c>
       <c r="O13">
-        <v>1.012916427591904</v>
+        <v>0.9888492020050587</v>
       </c>
       <c r="P13">
-        <v>1.005014842647248</v>
+        <v>0.9958459466126722</v>
       </c>
       <c r="Q13">
-        <v>1.005014842647248</v>
+        <v>0.9958459466126722</v>
       </c>
       <c r="R13">
-        <v>1.001963447653265</v>
+        <v>0.998679864734174</v>
       </c>
       <c r="S13">
-        <v>1.001963447653265</v>
+        <v>0.998679864734174</v>
       </c>
       <c r="T13">
-        <v>1.000614671402497</v>
+        <v>0.9992913740863129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.070188400000001</v>
+        <v>1.01230290073684</v>
       </c>
       <c r="D14">
-        <v>0.7442448400000002</v>
+        <v>0.9551589069578952</v>
       </c>
       <c r="E14">
-        <v>0.7442448400000002</v>
+        <v>0.9551589069578952</v>
       </c>
       <c r="F14">
-        <v>1.0526895</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="G14">
-        <v>1.0526895</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="H14">
-        <v>0.8552849100000013</v>
+        <v>0.974629374421053</v>
       </c>
       <c r="I14">
-        <v>1.190502199999999</v>
+        <v>1.033390469684211</v>
       </c>
       <c r="J14">
-        <v>1.065086699999999</v>
+        <v>1.011410962242109</v>
       </c>
       <c r="K14">
-        <v>1.0526895</v>
+        <v>1.009243544073685</v>
       </c>
       <c r="L14">
-        <v>1.070188400000001</v>
+        <v>1.01230290073684</v>
       </c>
       <c r="M14">
-        <v>0.9072166200000005</v>
+        <v>0.9837309038473676</v>
       </c>
       <c r="N14">
-        <v>0.9072166200000005</v>
+        <v>0.9837309038473676</v>
       </c>
       <c r="O14">
-        <v>0.8899060500000008</v>
+        <v>0.9806970607052627</v>
       </c>
       <c r="P14">
-        <v>0.9557075800000003</v>
+        <v>0.99223511725614</v>
       </c>
       <c r="Q14">
-        <v>0.9557075800000002</v>
+        <v>0.99223511725614</v>
       </c>
       <c r="R14">
-        <v>0.9799530600000002</v>
+        <v>0.9964872239605262</v>
       </c>
       <c r="S14">
-        <v>0.9799530600000002</v>
+        <v>0.9964872239605262</v>
       </c>
       <c r="T14">
-        <v>0.9963327583333332</v>
+        <v>0.9993560263526322</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996812800000001</v>
+        <v>0.9923873202062587</v>
       </c>
       <c r="D15">
-        <v>1.0044806</v>
+        <v>1.029847945064168</v>
       </c>
       <c r="E15">
-        <v>1.0044806</v>
+        <v>1.029847945064168</v>
       </c>
       <c r="F15">
-        <v>0.9974372800000001</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="G15">
-        <v>0.9974372800000001</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="H15">
-        <v>1.001945</v>
+        <v>1.016514017505284</v>
       </c>
       <c r="I15">
-        <v>0.9995775100000001</v>
+        <v>0.9796191474622779</v>
       </c>
       <c r="J15">
-        <v>0.99902705</v>
+        <v>0.9925103355056794</v>
       </c>
       <c r="K15">
-        <v>0.9974372800000001</v>
+        <v>0.9928092626713169</v>
       </c>
       <c r="L15">
-        <v>0.9996812800000001</v>
+        <v>0.9923873202062587</v>
       </c>
       <c r="M15">
-        <v>1.00208094</v>
+        <v>1.011117632635214</v>
       </c>
       <c r="N15">
-        <v>1.00208094</v>
+        <v>1.011117632635214</v>
       </c>
       <c r="O15">
-        <v>1.002035626666667</v>
+        <v>1.012916427591904</v>
       </c>
       <c r="P15">
-        <v>1.000533053333333</v>
+        <v>1.005014842647248</v>
       </c>
       <c r="Q15">
-        <v>1.000533053333333</v>
+        <v>1.005014842647248</v>
       </c>
       <c r="R15">
-        <v>0.9997591100000002</v>
+        <v>1.001963447653265</v>
       </c>
       <c r="S15">
-        <v>0.9997591100000002</v>
+        <v>1.001963447653265</v>
       </c>
       <c r="T15">
-        <v>1.00035812</v>
+        <v>1.000614671402497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0216333</v>
+        <v>1.070188400000001</v>
       </c>
       <c r="D16">
-        <v>0.88779747</v>
+        <v>0.7442448400000002</v>
       </c>
       <c r="E16">
-        <v>0.88779747</v>
+        <v>0.7442448400000002</v>
       </c>
       <c r="F16">
-        <v>1.0396018</v>
+        <v>1.0526895</v>
       </c>
       <c r="G16">
-        <v>1.0396018</v>
+        <v>1.0526895</v>
       </c>
       <c r="H16">
-        <v>0.94244704</v>
+        <v>0.8552849100000013</v>
       </c>
       <c r="I16">
-        <v>1.0542662</v>
+        <v>1.190502199999999</v>
       </c>
       <c r="J16">
-        <v>1.0268719</v>
+        <v>1.065086699999999</v>
       </c>
       <c r="K16">
-        <v>1.0396018</v>
+        <v>1.0526895</v>
       </c>
       <c r="L16">
-        <v>1.0216333</v>
+        <v>1.070188400000001</v>
       </c>
       <c r="M16">
-        <v>0.954715385</v>
+        <v>0.9072166200000005</v>
       </c>
       <c r="N16">
-        <v>0.954715385</v>
+        <v>0.9072166200000005</v>
       </c>
       <c r="O16">
-        <v>0.9506259366666666</v>
+        <v>0.8899060500000008</v>
       </c>
       <c r="P16">
-        <v>0.9830108566666667</v>
+        <v>0.9557075800000003</v>
       </c>
       <c r="Q16">
-        <v>0.9830108566666667</v>
+        <v>0.9557075800000002</v>
       </c>
       <c r="R16">
-        <v>0.9971585924999999</v>
+        <v>0.9799530600000002</v>
       </c>
       <c r="S16">
-        <v>0.9971585924999999</v>
+        <v>0.9799530600000002</v>
       </c>
       <c r="T16">
-        <v>0.9954362849999999</v>
+        <v>0.9963327583333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.96686335</v>
+        <v>0.9996812800000001</v>
       </c>
       <c r="D17">
-        <v>1.1345561</v>
+        <v>1.0044806</v>
       </c>
       <c r="E17">
-        <v>1.1345561</v>
+        <v>1.0044806</v>
       </c>
       <c r="F17">
-        <v>0.9654567200000002</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="G17">
-        <v>0.9654567200000002</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="H17">
-        <v>1.0736803</v>
+        <v>1.001945</v>
       </c>
       <c r="I17">
-        <v>0.9119035199999999</v>
+        <v>0.9995775100000001</v>
       </c>
       <c r="J17">
-        <v>0.96645325</v>
+        <v>0.99902705</v>
       </c>
       <c r="K17">
-        <v>0.9654567200000002</v>
+        <v>0.9974372800000001</v>
       </c>
       <c r="L17">
-        <v>0.96686335</v>
+        <v>0.9996812800000001</v>
       </c>
       <c r="M17">
-        <v>1.050709725</v>
+        <v>1.00208094</v>
       </c>
       <c r="N17">
-        <v>1.050709725</v>
+        <v>1.00208094</v>
       </c>
       <c r="O17">
-        <v>1.058366583333333</v>
+        <v>1.002035626666667</v>
       </c>
       <c r="P17">
-        <v>1.022292056666667</v>
+        <v>1.000533053333333</v>
       </c>
       <c r="Q17">
-        <v>1.022292056666667</v>
+        <v>1.000533053333333</v>
       </c>
       <c r="R17">
-        <v>1.0080832225</v>
+        <v>0.9997591100000002</v>
       </c>
       <c r="S17">
-        <v>1.0080832225</v>
+        <v>0.9997591100000002</v>
       </c>
       <c r="T17">
-        <v>1.003152206666667</v>
+        <v>1.00035812</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023104871780822</v>
+        <v>1.0216333</v>
       </c>
       <c r="D18">
-        <v>0.8999194030136988</v>
+        <v>0.88779747</v>
       </c>
       <c r="E18">
-        <v>0.8999194030136988</v>
+        <v>0.88779747</v>
       </c>
       <c r="F18">
-        <v>1.028467633972603</v>
+        <v>1.0396018</v>
       </c>
       <c r="G18">
-        <v>1.028467633972603</v>
+        <v>1.0396018</v>
       </c>
       <c r="H18">
-        <v>0.9461967676712326</v>
+        <v>0.94244704</v>
       </c>
       <c r="I18">
-        <v>1.060591530547945</v>
+        <v>1.0542662</v>
       </c>
       <c r="J18">
-        <v>1.024668369178082</v>
+        <v>1.0268719</v>
       </c>
       <c r="K18">
-        <v>1.028467633972603</v>
+        <v>1.0396018</v>
       </c>
       <c r="L18">
-        <v>1.023104871780822</v>
+        <v>1.0216333</v>
       </c>
       <c r="M18">
-        <v>0.9615121373972606</v>
+        <v>0.954715385</v>
       </c>
       <c r="N18">
-        <v>0.9615121373972606</v>
+        <v>0.954715385</v>
       </c>
       <c r="O18">
-        <v>0.9564070141552513</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P18">
-        <v>0.9838306362557079</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q18">
-        <v>0.9838306362557079</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R18">
-        <v>0.9949898856849315</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S18">
-        <v>0.9949898856849315</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T18">
-        <v>0.9971580960273974</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001951975263158</v>
+        <v>0.96686335</v>
       </c>
       <c r="D19">
-        <v>0.9912253752631578</v>
+        <v>1.1345561</v>
       </c>
       <c r="E19">
-        <v>0.9912253752631578</v>
+        <v>1.1345561</v>
       </c>
       <c r="F19">
-        <v>1.002628680526316</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="G19">
-        <v>1.002628680526316</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="H19">
-        <v>0.9953305584210527</v>
+        <v>1.0736803</v>
       </c>
       <c r="I19">
-        <v>1.005076374736842</v>
+        <v>0.9119035199999999</v>
       </c>
       <c r="J19">
-        <v>1.002149272631579</v>
+        <v>0.96645325</v>
       </c>
       <c r="K19">
-        <v>1.002628680526316</v>
+        <v>0.9654567200000002</v>
       </c>
       <c r="L19">
-        <v>1.001951975263158</v>
+        <v>0.96686335</v>
       </c>
       <c r="M19">
-        <v>0.9965886752631579</v>
+        <v>1.050709725</v>
       </c>
       <c r="N19">
-        <v>0.9965886752631579</v>
+        <v>1.050709725</v>
       </c>
       <c r="O19">
-        <v>0.9961693029824561</v>
+        <v>1.058366583333333</v>
       </c>
       <c r="P19">
-        <v>0.9986020103508771</v>
+        <v>1.022292056666667</v>
       </c>
       <c r="Q19">
-        <v>0.9986020103508771</v>
+        <v>1.022292056666667</v>
       </c>
       <c r="R19">
-        <v>0.9996086778947368</v>
+        <v>1.0080832225</v>
       </c>
       <c r="S19">
-        <v>0.9996086778947368</v>
+        <v>1.0080832225</v>
       </c>
       <c r="T19">
-        <v>0.9997270394736842</v>
+        <v>1.003152206666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.012336001052632</v>
+        <v>1.023104871780822</v>
       </c>
       <c r="D20">
-        <v>0.9589977078947367</v>
+        <v>0.8999194030136988</v>
       </c>
       <c r="E20">
-        <v>0.9589977078947367</v>
+        <v>0.8999194030136988</v>
       </c>
       <c r="F20">
-        <v>1.006496822105263</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="G20">
-        <v>1.006496822105263</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="H20">
-        <v>0.976097375263158</v>
+        <v>0.9461967676712326</v>
       </c>
       <c r="I20">
-        <v>1.03400821631579</v>
+        <v>1.060591530547945</v>
       </c>
       <c r="J20">
-        <v>1.010633609473684</v>
+        <v>1.024668369178082</v>
       </c>
       <c r="K20">
-        <v>1.006496822105263</v>
+        <v>1.028467633972603</v>
       </c>
       <c r="L20">
-        <v>1.012336001052632</v>
+        <v>1.023104871780822</v>
       </c>
       <c r="M20">
-        <v>0.9856668544736842</v>
+        <v>0.9615121373972606</v>
       </c>
       <c r="N20">
-        <v>0.9856668544736842</v>
+        <v>0.9615121373972606</v>
       </c>
       <c r="O20">
-        <v>0.9824770280701755</v>
+        <v>0.9564070141552513</v>
       </c>
       <c r="P20">
-        <v>0.9926101770175438</v>
+        <v>0.9838306362557079</v>
       </c>
       <c r="Q20">
-        <v>0.9926101770175438</v>
+        <v>0.9838306362557079</v>
       </c>
       <c r="R20">
-        <v>0.9960818382894737</v>
+        <v>0.9949898856849315</v>
       </c>
       <c r="S20">
-        <v>0.9960818382894737</v>
+        <v>0.9949898856849315</v>
       </c>
       <c r="T20">
-        <v>0.9997616220175439</v>
+        <v>0.9971580960273974</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9770848392505382</v>
+        <v>1.001951975263158</v>
       </c>
       <c r="D21">
-        <v>1.088476536302538</v>
+        <v>0.9912253752631578</v>
       </c>
       <c r="E21">
-        <v>1.088476536302538</v>
+        <v>0.9912253752631578</v>
       </c>
       <c r="F21">
-        <v>0.9793137288942677</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="G21">
-        <v>0.9793137288942677</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="H21">
-        <v>1.049177922113154</v>
+        <v>0.9953305584210527</v>
       </c>
       <c r="I21">
-        <v>0.9384683448065863</v>
+        <v>1.005076374736842</v>
       </c>
       <c r="J21">
-        <v>0.977734662465287</v>
+        <v>1.002149272631579</v>
       </c>
       <c r="K21">
-        <v>0.9793137288942677</v>
+        <v>1.002628680526316</v>
       </c>
       <c r="L21">
-        <v>0.9770848392505382</v>
+        <v>1.001951975263158</v>
       </c>
       <c r="M21">
-        <v>1.032780687776538</v>
+        <v>0.9965886752631579</v>
       </c>
       <c r="N21">
-        <v>1.032780687776538</v>
+        <v>0.9965886752631579</v>
       </c>
       <c r="O21">
-        <v>1.03824643255541</v>
+        <v>0.9961693029824561</v>
       </c>
       <c r="P21">
-        <v>1.014958368149115</v>
+        <v>0.9986020103508771</v>
       </c>
       <c r="Q21">
-        <v>1.014958368149115</v>
+        <v>0.9986020103508771</v>
       </c>
       <c r="R21">
-        <v>1.006047208335403</v>
+        <v>0.9996086778947368</v>
       </c>
       <c r="S21">
-        <v>1.006047208335403</v>
+        <v>0.9996086778947368</v>
       </c>
       <c r="T21">
-        <v>1.001709338972062</v>
+        <v>0.9997270394736842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9943369408610638</v>
+        <v>1.012336001052632</v>
       </c>
       <c r="D22">
-        <v>1.024046583820464</v>
+        <v>0.9589977078947367</v>
       </c>
       <c r="E22">
-        <v>1.024046583820464</v>
+        <v>0.9589977078947367</v>
       </c>
       <c r="F22">
-        <v>0.9933608914832228</v>
+        <v>1.006496822105263</v>
       </c>
       <c r="G22">
-        <v>0.9933608914832228</v>
+        <v>1.006496822105263</v>
       </c>
       <c r="H22">
-        <v>1.012999733092003</v>
+        <v>0.976097375263158</v>
       </c>
       <c r="I22">
-        <v>0.9850844335556901</v>
+        <v>1.03400821631579</v>
       </c>
       <c r="J22">
-        <v>0.9940523900413201</v>
+        <v>1.010633609473684</v>
       </c>
       <c r="K22">
-        <v>0.9933608914832228</v>
+        <v>1.006496822105263</v>
       </c>
       <c r="L22">
-        <v>0.9943369408610638</v>
+        <v>1.012336001052632</v>
       </c>
       <c r="M22">
-        <v>1.009191762340764</v>
+        <v>0.9856668544736842</v>
       </c>
       <c r="N22">
-        <v>1.009191762340764</v>
+        <v>0.9856668544736842</v>
       </c>
       <c r="O22">
-        <v>1.01046108592451</v>
+        <v>0.9824770280701755</v>
       </c>
       <c r="P22">
-        <v>1.00391480538825</v>
+        <v>0.9926101770175438</v>
       </c>
       <c r="Q22">
-        <v>1.00391480538825</v>
+        <v>0.9926101770175438</v>
       </c>
       <c r="R22">
-        <v>1.001276326911993</v>
+        <v>0.9960818382894737</v>
       </c>
       <c r="S22">
-        <v>1.001276326911993</v>
+        <v>0.9960818382894737</v>
       </c>
       <c r="T22">
-        <v>1.00064682880896</v>
+        <v>0.9997616220175439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9911915687538168</v>
+        <v>0.9770848392505382</v>
       </c>
       <c r="D23">
-        <v>1.02812430450951</v>
+        <v>1.088476536302538</v>
       </c>
       <c r="E23">
-        <v>1.02812430450951</v>
+        <v>1.088476536302538</v>
       </c>
       <c r="F23">
-        <v>0.9961681657979153</v>
+        <v>0.9793137288942677</v>
       </c>
       <c r="G23">
-        <v>0.9961681657979153</v>
+        <v>0.9793137288942677</v>
       </c>
       <c r="H23">
-        <v>1.016620090270093</v>
+        <v>1.049177922113154</v>
       </c>
       <c r="I23">
-        <v>0.9755629199462998</v>
+        <v>0.9384683448065863</v>
       </c>
       <c r="J23">
-        <v>0.9926424716027454</v>
+        <v>0.977734662465287</v>
       </c>
       <c r="K23">
-        <v>0.9961681657979153</v>
+        <v>0.9793137288942677</v>
       </c>
       <c r="L23">
-        <v>0.9911915687538168</v>
+        <v>0.9770848392505382</v>
       </c>
       <c r="M23">
-        <v>1.009657936631663</v>
+        <v>1.032780687776538</v>
       </c>
       <c r="N23">
-        <v>1.009657936631663</v>
+        <v>1.032780687776538</v>
       </c>
       <c r="O23">
-        <v>1.01197865451114</v>
+        <v>1.03824643255541</v>
       </c>
       <c r="P23">
-        <v>1.005161346353747</v>
+        <v>1.014958368149115</v>
       </c>
       <c r="Q23">
-        <v>1.005161346353747</v>
+        <v>1.014958368149115</v>
       </c>
       <c r="R23">
-        <v>1.002913051214789</v>
+        <v>1.006047208335403</v>
       </c>
       <c r="S23">
-        <v>1.002913051214789</v>
+        <v>1.006047208335403</v>
       </c>
       <c r="T23">
-        <v>1.000051586813397</v>
+        <v>1.001709338972062</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9985453766055026</v>
+        <v>0.9943369408610638</v>
       </c>
       <c r="D24">
-        <v>1.008842105048209</v>
+        <v>1.024046583820464</v>
       </c>
       <c r="E24">
-        <v>1.008842105048209</v>
+        <v>1.024046583820464</v>
       </c>
       <c r="F24">
-        <v>0.9964288541187124</v>
+        <v>0.9933608914832228</v>
       </c>
       <c r="G24">
-        <v>0.9964288541187124</v>
+        <v>0.9933608914832228</v>
       </c>
       <c r="H24">
-        <v>1.00437333318519</v>
+        <v>1.012999733092003</v>
       </c>
       <c r="I24">
-        <v>0.9965241456152116</v>
+        <v>0.9850844335556901</v>
       </c>
       <c r="J24">
-        <v>0.9979283127626314</v>
+        <v>0.9940523900413201</v>
       </c>
       <c r="K24">
-        <v>0.9964288541187124</v>
+        <v>0.9933608914832228</v>
       </c>
       <c r="L24">
-        <v>0.9985453766055026</v>
+        <v>0.9943369408610638</v>
       </c>
       <c r="M24">
-        <v>1.003693740826856</v>
+        <v>1.009191762340764</v>
       </c>
       <c r="N24">
-        <v>1.003693740826856</v>
+        <v>1.009191762340764</v>
       </c>
       <c r="O24">
-        <v>1.003920271612967</v>
+        <v>1.01046108592451</v>
       </c>
       <c r="P24">
-        <v>1.001272111924141</v>
+        <v>1.00391480538825</v>
       </c>
       <c r="Q24">
-        <v>1.001272111924141</v>
+        <v>1.00391480538825</v>
       </c>
       <c r="R24">
-        <v>1.000061297472784</v>
+        <v>1.001276326911993</v>
       </c>
       <c r="S24">
-        <v>1.000061297472784</v>
+        <v>1.001276326911993</v>
       </c>
       <c r="T24">
-        <v>1.00044035455591</v>
+        <v>1.00064682880896</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002064574595686</v>
+        <v>0.9911915687538168</v>
       </c>
       <c r="D25">
-        <v>0.9860790581041075</v>
+        <v>1.02812430450951</v>
       </c>
       <c r="E25">
-        <v>0.9860790581041075</v>
+        <v>1.02812430450951</v>
       </c>
       <c r="F25">
-        <v>1.006028438833737</v>
+        <v>0.9961681657979153</v>
       </c>
       <c r="G25">
-        <v>1.006028438833737</v>
+        <v>0.9961681657979153</v>
       </c>
       <c r="H25">
-        <v>0.9932608285504012</v>
+        <v>1.016620090270093</v>
       </c>
       <c r="I25">
-        <v>1.004750487020169</v>
+        <v>0.9755629199462998</v>
       </c>
       <c r="J25">
-        <v>1.003220209955117</v>
+        <v>0.9926424716027454</v>
       </c>
       <c r="K25">
-        <v>1.006028438833737</v>
+        <v>0.9961681657979153</v>
       </c>
       <c r="L25">
-        <v>1.002064574595686</v>
+        <v>0.9911915687538168</v>
       </c>
       <c r="M25">
-        <v>0.9940718163498968</v>
+        <v>1.009657936631663</v>
       </c>
       <c r="N25">
-        <v>0.9940718163498968</v>
+        <v>1.009657936631663</v>
       </c>
       <c r="O25">
-        <v>0.9938014870833983</v>
+        <v>1.01197865451114</v>
       </c>
       <c r="P25">
-        <v>0.9980573571778435</v>
+        <v>1.005161346353747</v>
       </c>
       <c r="Q25">
-        <v>0.9980573571778435</v>
+        <v>1.005161346353747</v>
       </c>
       <c r="R25">
-        <v>1.000050127591817</v>
+        <v>1.002913051214789</v>
       </c>
       <c r="S25">
-        <v>1.000050127591817</v>
+        <v>1.002913051214789</v>
       </c>
       <c r="T25">
-        <v>0.9992339328432029</v>
+        <v>1.000051586813397</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.001298496200779</v>
+        <v>0.9985453766055026</v>
       </c>
       <c r="D26">
-        <v>0.9972136002251396</v>
+        <v>1.008842105048209</v>
       </c>
       <c r="E26">
-        <v>0.9972136002251396</v>
+        <v>1.008842105048209</v>
       </c>
       <c r="F26">
-        <v>0.9996131792223932</v>
+        <v>0.9964288541187124</v>
       </c>
       <c r="G26">
-        <v>0.9996131792223932</v>
+        <v>0.9964288541187124</v>
       </c>
       <c r="H26">
-        <v>0.998077445246348</v>
+        <v>1.00437333318519</v>
       </c>
       <c r="I26">
-        <v>1.003783675496477</v>
+        <v>0.9965241456152116</v>
       </c>
       <c r="J26">
-        <v>1.000807150670082</v>
+        <v>0.9979283127626314</v>
       </c>
       <c r="K26">
-        <v>0.9996131792223932</v>
+        <v>0.9964288541187124</v>
       </c>
       <c r="L26">
-        <v>1.001298496200779</v>
+        <v>0.9985453766055026</v>
       </c>
       <c r="M26">
-        <v>0.9992560482129593</v>
+        <v>1.003693740826856</v>
       </c>
       <c r="N26">
-        <v>0.9992560482129593</v>
+        <v>1.003693740826856</v>
       </c>
       <c r="O26">
-        <v>0.9988631805574223</v>
+        <v>1.003920271612967</v>
       </c>
       <c r="P26">
-        <v>0.9993750918827707</v>
+        <v>1.001272111924141</v>
       </c>
       <c r="Q26">
-        <v>0.9993750918827707</v>
+        <v>1.001272111924141</v>
       </c>
       <c r="R26">
-        <v>0.9994346137176764</v>
+        <v>1.000061297472784</v>
       </c>
       <c r="S26">
-        <v>0.9994346137176764</v>
+        <v>1.000061297472784</v>
       </c>
       <c r="T26">
-        <v>1.000132257843537</v>
+        <v>1.00044035455591</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.003836844868689</v>
+        <v>1.002064574595686</v>
       </c>
       <c r="D27">
-        <v>0.9840829099406317</v>
+        <v>0.9860790581041075</v>
       </c>
       <c r="E27">
-        <v>0.9840829099406317</v>
+        <v>0.9860790581041075</v>
       </c>
       <c r="F27">
-        <v>1.004235654288591</v>
+        <v>1.006028438833737</v>
       </c>
       <c r="G27">
-        <v>1.004235654288591</v>
+        <v>1.006028438833737</v>
       </c>
       <c r="H27">
-        <v>0.9913378830152971</v>
+        <v>0.9932608285504012</v>
       </c>
       <c r="I27">
-        <v>1.01015563260021</v>
+        <v>1.004750487020169</v>
       </c>
       <c r="J27">
-        <v>1.00395312323772</v>
+        <v>1.003220209955117</v>
       </c>
       <c r="K27">
-        <v>1.004235654288591</v>
+        <v>1.006028438833737</v>
       </c>
       <c r="L27">
-        <v>1.003836844868689</v>
+        <v>1.002064574595686</v>
       </c>
       <c r="M27">
-        <v>0.9939598774046605</v>
+        <v>0.9940718163498968</v>
       </c>
       <c r="N27">
-        <v>0.9939598774046605</v>
+        <v>0.9940718163498968</v>
       </c>
       <c r="O27">
-        <v>0.9930858792748727</v>
+        <v>0.9938014870833983</v>
       </c>
       <c r="P27">
-        <v>0.9973851363659708</v>
+        <v>0.9980573571778435</v>
       </c>
       <c r="Q27">
-        <v>0.9973851363659708</v>
+        <v>0.9980573571778435</v>
       </c>
       <c r="R27">
-        <v>0.9990977658466259</v>
+        <v>1.000050127591817</v>
       </c>
       <c r="S27">
-        <v>0.9990977658466259</v>
+        <v>1.000050127591817</v>
       </c>
       <c r="T27">
-        <v>0.9996003413251898</v>
+        <v>0.9992339328432029</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.998456074134901</v>
+        <v>1.001298496200779</v>
       </c>
       <c r="D28">
-        <v>1.003437023335902</v>
+        <v>0.9972136002251396</v>
       </c>
       <c r="E28">
-        <v>1.003437023335902</v>
+        <v>0.9972136002251396</v>
       </c>
       <c r="F28">
-        <v>1.000373167779205</v>
+        <v>0.9996131792223932</v>
       </c>
       <c r="G28">
-        <v>1.000373167779205</v>
+        <v>0.9996131792223932</v>
       </c>
       <c r="H28">
-        <v>1.002334024907776</v>
+        <v>0.998077445246348</v>
       </c>
       <c r="I28">
-        <v>0.9955176852829054</v>
+        <v>1.003783675496477</v>
       </c>
       <c r="J28">
-        <v>0.9990149871727638</v>
+        <v>1.000807150670082</v>
       </c>
       <c r="K28">
-        <v>1.000373167779205</v>
+        <v>0.9996131792223932</v>
       </c>
       <c r="L28">
-        <v>0.998456074134901</v>
+        <v>1.001298496200779</v>
       </c>
       <c r="M28">
-        <v>1.000946548735401</v>
+        <v>0.9992560482129593</v>
       </c>
       <c r="N28">
-        <v>1.000946548735401</v>
+        <v>0.9992560482129593</v>
       </c>
       <c r="O28">
-        <v>1.00140904079286</v>
+        <v>0.9988631805574223</v>
       </c>
       <c r="P28">
-        <v>1.000755421750003</v>
+        <v>0.9993750918827707</v>
       </c>
       <c r="Q28">
-        <v>1.000755421750003</v>
+        <v>0.9993750918827707</v>
       </c>
       <c r="R28">
-        <v>1.000659858257303</v>
+        <v>0.9994346137176764</v>
       </c>
       <c r="S28">
-        <v>1.000659858257303</v>
+        <v>0.9994346137176764</v>
       </c>
       <c r="T28">
-        <v>0.9998554937689089</v>
+        <v>1.000132257843537</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.003836844868689</v>
+      </c>
+      <c r="D29">
+        <v>0.9840829099406317</v>
+      </c>
+      <c r="E29">
+        <v>0.9840829099406317</v>
+      </c>
+      <c r="F29">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="G29">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="H29">
+        <v>0.9913378830152971</v>
+      </c>
+      <c r="I29">
+        <v>1.01015563260021</v>
+      </c>
+      <c r="J29">
+        <v>1.00395312323772</v>
+      </c>
+      <c r="K29">
+        <v>1.004235654288591</v>
+      </c>
+      <c r="L29">
+        <v>1.003836844868689</v>
+      </c>
+      <c r="M29">
+        <v>0.9939598774046605</v>
+      </c>
+      <c r="N29">
+        <v>0.9939598774046605</v>
+      </c>
+      <c r="O29">
+        <v>0.9930858792748727</v>
+      </c>
+      <c r="P29">
+        <v>0.9973851363659708</v>
+      </c>
+      <c r="Q29">
+        <v>0.9973851363659708</v>
+      </c>
+      <c r="R29">
+        <v>0.9990977658466259</v>
+      </c>
+      <c r="S29">
+        <v>0.9990977658466259</v>
+      </c>
+      <c r="T29">
+        <v>0.9996003413251898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.998456074134901</v>
+      </c>
+      <c r="D30">
+        <v>1.003437023335902</v>
+      </c>
+      <c r="E30">
+        <v>1.003437023335902</v>
+      </c>
+      <c r="F30">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="G30">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="H30">
+        <v>1.002334024907776</v>
+      </c>
+      <c r="I30">
+        <v>0.9955176852829054</v>
+      </c>
+      <c r="J30">
+        <v>0.9990149871727638</v>
+      </c>
+      <c r="K30">
+        <v>1.000373167779205</v>
+      </c>
+      <c r="L30">
+        <v>0.998456074134901</v>
+      </c>
+      <c r="M30">
+        <v>1.000946548735401</v>
+      </c>
+      <c r="N30">
+        <v>1.000946548735401</v>
+      </c>
+      <c r="O30">
+        <v>1.00140904079286</v>
+      </c>
+      <c r="P30">
+        <v>1.000755421750003</v>
+      </c>
+      <c r="Q30">
+        <v>1.000755421750003</v>
+      </c>
+      <c r="R30">
+        <v>1.000659858257303</v>
+      </c>
+      <c r="S30">
+        <v>1.000659858257303</v>
+      </c>
+      <c r="T30">
+        <v>0.9998554937689089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9860626908398845</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.051316139096158</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.051316139096158</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9891658925260086</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9891658925260086</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.028942038386208</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9622427378469851</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9869673984973013</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9891658925260086</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9860626908398845</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.018689414968021</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.018689414968021</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.022106956107417</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008848240820684</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.008848240820684</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.003927653747015</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003927653747015</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000782816198758</v>
       </c>
     </row>
